--- a/city-metro-visualization/data/深圳/metro_adj_stations.xlsx
+++ b/city-metro-visualization/data/深圳/metro_adj_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="628">
   <si>
     <t>station_name</t>
   </si>
@@ -34,6 +34,12 @@
     <t>上塘</t>
   </si>
   <si>
+    <t>上屋</t>
+  </si>
+  <si>
+    <t>上李朗</t>
+  </si>
+  <si>
     <t>上梅林</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>上沙</t>
   </si>
   <si>
+    <t>上芬</t>
+  </si>
+  <si>
     <t>下梅林</t>
   </si>
   <si>
@@ -70,9 +79,15 @@
     <t>人民南</t>
   </si>
   <si>
+    <t>仙湖路</t>
+  </si>
+  <si>
     <t>会展中心</t>
   </si>
   <si>
+    <t>体育中心</t>
+  </si>
+  <si>
     <t>侨城东</t>
   </si>
   <si>
@@ -82,9 +97,24 @@
     <t>侨香</t>
   </si>
   <si>
+    <t>元芬</t>
+  </si>
+  <si>
+    <t>光明</t>
+  </si>
+  <si>
+    <t>光明大街</t>
+  </si>
+  <si>
+    <t>光雅园</t>
+  </si>
+  <si>
     <t>八卦岭</t>
   </si>
   <si>
+    <t>公明广场</t>
+  </si>
+  <si>
     <t>六约</t>
   </si>
   <si>
@@ -94,6 +124,15 @@
     <t>农林</t>
   </si>
   <si>
+    <t>冬瓜岭</t>
+  </si>
+  <si>
+    <t>凉帽山</t>
+  </si>
+  <si>
+    <t>凤凰城</t>
+  </si>
+  <si>
     <t>前海湾</t>
   </si>
   <si>
@@ -103,9 +142,15 @@
     <t>前湾公园</t>
   </si>
   <si>
+    <t>华为</t>
+  </si>
+  <si>
     <t>华侨城</t>
   </si>
   <si>
+    <t>华南城</t>
+  </si>
+  <si>
     <t>华强北</t>
   </si>
   <si>
@@ -118,6 +163,9 @@
     <t>华新</t>
   </si>
   <si>
+    <t>南坑</t>
+  </si>
+  <si>
     <t>南山</t>
   </si>
   <si>
@@ -133,9 +181,15 @@
     <t>南联</t>
   </si>
   <si>
+    <t>双拥街</t>
+  </si>
+  <si>
     <t>双龙</t>
   </si>
   <si>
+    <t>合水口</t>
+  </si>
+  <si>
     <t>吉祥</t>
   </si>
   <si>
@@ -163,6 +217,9 @@
     <t>坂田</t>
   </si>
   <si>
+    <t>坂田北</t>
+  </si>
+  <si>
     <t>坪洲</t>
   </si>
   <si>
@@ -202,6 +259,9 @@
     <t>安托山</t>
   </si>
   <si>
+    <t>官田</t>
+  </si>
+  <si>
     <t>宝体</t>
   </si>
   <si>
@@ -223,6 +283,9 @@
     <t>岗厦北</t>
   </si>
   <si>
+    <t>岗头</t>
+  </si>
+  <si>
     <t>市民中心</t>
   </si>
   <si>
@@ -232,6 +295,9 @@
     <t>布心</t>
   </si>
   <si>
+    <t>平湖</t>
+  </si>
+  <si>
     <t>怡景</t>
   </si>
   <si>
@@ -253,6 +319,9 @@
     <t>景田</t>
   </si>
   <si>
+    <t>木古</t>
+  </si>
+  <si>
     <t>木棉湾</t>
   </si>
   <si>
@@ -268,9 +337,15 @@
     <t>杨美</t>
   </si>
   <si>
+    <t>松元厦</t>
+  </si>
+  <si>
     <t>松岗</t>
   </si>
   <si>
+    <t>松岗公园</t>
+  </si>
+  <si>
     <t>桂湾</t>
   </si>
   <si>
@@ -289,9 +364,18 @@
     <t>梅村</t>
   </si>
   <si>
+    <t>梅林关</t>
+  </si>
+  <si>
     <t>梦海</t>
   </si>
   <si>
+    <t>梧桐山南</t>
+  </si>
+  <si>
+    <t>楼村</t>
+  </si>
+  <si>
     <t>横岗</t>
   </si>
   <si>
@@ -313,6 +397,9 @@
     <t>沙井</t>
   </si>
   <si>
+    <t>沙头角</t>
+  </si>
+  <si>
     <t>沙尾</t>
   </si>
   <si>
@@ -328,6 +415,9 @@
     <t>海上世界</t>
   </si>
   <si>
+    <t>海山</t>
+  </si>
+  <si>
     <t>海月</t>
   </si>
   <si>
@@ -340,6 +430,9 @@
     <t>深圳湾公园</t>
   </si>
   <si>
+    <t>深外高中</t>
+  </si>
+  <si>
     <t>深大</t>
   </si>
   <si>
@@ -355,12 +448,18 @@
     <t>清湖</t>
   </si>
   <si>
+    <t>清湖北</t>
+  </si>
+  <si>
     <t>湖贝</t>
   </si>
   <si>
     <t>湾厦</t>
   </si>
   <si>
+    <t>溪头</t>
+  </si>
+  <si>
     <t>灵芝</t>
   </si>
   <si>
@@ -370,9 +469,15 @@
     <t>爱联</t>
   </si>
   <si>
+    <t>牛湖</t>
+  </si>
+  <si>
     <t>珠光</t>
   </si>
   <si>
+    <t>甘坑</t>
+  </si>
+  <si>
     <t>田贝</t>
   </si>
   <si>
@@ -400,6 +505,12 @@
     <t>益田</t>
   </si>
   <si>
+    <t>盐田港西</t>
+  </si>
+  <si>
+    <t>盐田路</t>
+  </si>
+  <si>
     <t>石厦</t>
   </si>
   <si>
@@ -409,6 +520,9 @@
     <t>碧海湾</t>
   </si>
   <si>
+    <t>福保</t>
+  </si>
+  <si>
     <t>福民</t>
   </si>
   <si>
@@ -421,6 +535,12 @@
     <t>福田口岸</t>
   </si>
   <si>
+    <t>禾花</t>
+  </si>
+  <si>
+    <t>科学公园</t>
+  </si>
+  <si>
     <t>科学馆</t>
   </si>
   <si>
@@ -430,6 +550,9 @@
     <t>竹子林</t>
   </si>
   <si>
+    <t>竹村</t>
+  </si>
+  <si>
     <t>笋岗</t>
   </si>
   <si>
@@ -454,18 +577,27 @@
     <t>红树湾南</t>
   </si>
   <si>
+    <t>红花山</t>
+  </si>
+  <si>
     <t>罗湖</t>
   </si>
   <si>
     <t>翠竹</t>
   </si>
   <si>
+    <t>翰岭</t>
+  </si>
+  <si>
     <t>翻身</t>
   </si>
   <si>
     <t>老街</t>
   </si>
   <si>
+    <t>茜坑</t>
+  </si>
+  <si>
     <t>茶光</t>
   </si>
   <si>
@@ -481,6 +613,12 @@
     <t>荷坳</t>
   </si>
   <si>
+    <t>莲塘</t>
+  </si>
+  <si>
+    <t>莲塘口岸</t>
+  </si>
+  <si>
     <t>莲花北</t>
   </si>
   <si>
@@ -490,6 +628,9 @@
     <t>莲花西</t>
   </si>
   <si>
+    <t>薯田埔</t>
+  </si>
+  <si>
     <t>蛇口港</t>
   </si>
   <si>
@@ -502,6 +643,15 @@
     <t>西乡</t>
   </si>
   <si>
+    <t>观澜</t>
+  </si>
+  <si>
+    <t>观澜湖</t>
+  </si>
+  <si>
+    <t>贝尔路</t>
+  </si>
+  <si>
     <t>购物公园</t>
   </si>
   <si>
@@ -523,12 +673,27 @@
     <t>银湖</t>
   </si>
   <si>
+    <t>长圳</t>
+  </si>
+  <si>
     <t>长岭陂</t>
   </si>
   <si>
+    <t>长湖</t>
+  </si>
+  <si>
     <t>长龙</t>
   </si>
   <si>
+    <t>阳台山东</t>
+  </si>
+  <si>
+    <t>雅宝</t>
+  </si>
+  <si>
+    <t>雪象</t>
+  </si>
+  <si>
     <t>香梅</t>
   </si>
   <si>
@@ -574,7 +739,10 @@
     <t>龙胜</t>
   </si>
   <si>
-    <t>{'龙胜': 0.85}</t>
+    <t>{'上芬': 0.53, '龙胜': 0.85}</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>{'孖岭': 0.88, '梅村': 0.75}</t>
@@ -586,6 +754,9 @@
     <t>{'沙尾': 0.84}</t>
   </si>
   <si>
+    <t>{'上塘': 0.53, '龙胜': 0.68}</t>
+  </si>
+  <si>
     <t>{'梅景': 0.65}</t>
   </si>
   <si>
@@ -598,27 +769,39 @@
     <t>{'白石洲': 0.8}</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>{'宝华': 0.75, '新安': 0.66}</t>
   </si>
   <si>
+    <t>{'坂田北': 0.94}</t>
+  </si>
+  <si>
     <t>{'向西村': 0.92, '国贸': 0.47, '罗湖': 0.39, '老街': 0.98, '鹿丹村': 0.98}</t>
   </si>
   <si>
+    <t>{'莲塘': 0.81}</t>
+  </si>
+  <si>
     <t>{'岗厦': 0.73, '市民中心': 0.78, '购物公园': 0.67}</t>
   </si>
   <si>
+    <t>{'八卦岭': 0.82, '园岭': 0.88, '通新岭': 0.62, '黄木岗': 0.92}</t>
+  </si>
+  <si>
     <t>{'安托山': 0.84}</t>
   </si>
   <si>
-    <t>{'泥岗': 0.7, '红岭北': 0.95, '银湖': 0.9}</t>
+    <t>{'南坑': 0.61}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 0.82, '泥岗': 0.72, '红岭北': 0.99, '银湖': 0.86}</t>
   </si>
   <si>
     <t>{'竹子林': 0.9, '车公庙': 0.92}</t>
   </si>
   <si>
+    <t>{'孖岭': 0.89, '莲花北': 0.84}</t>
+  </si>
+  <si>
     <t>{'桂湾': 0.53, '鲤鱼门': 0.78}</t>
   </si>
   <si>
@@ -628,10 +811,16 @@
     <t>{'前湾': 0.94, '妈湾': 0.99, '梦海': 1.0}</t>
   </si>
   <si>
+    <t>{'岗头': 0.88, '贝尔路': 0.97}</t>
+  </si>
+  <si>
+    <t>{'木古': 0.74}</t>
+  </si>
+  <si>
     <t>{'华强南': 0.82, '华强路': 0.44, '华新': 0.52, '燕南': 0.73}</t>
   </si>
   <si>
-    <t>{'华强北': 0.82, '华强路': 0.4, '科学馆': 0.92, '赤尾': 0.73}</t>
+    <t>{'华强北': 0.82, '华强路': 0.4, '科学馆': 0.94, '赤尾': 0.73}</t>
   </si>
   <si>
     <t>{'华强北': 0.44, '华强南': 0.4, '华新': 0.96, '燕南': 0.89}</t>
@@ -640,6 +829,9 @@
     <t>{'华强北': 0.52, '华强路': 0.96, '燕南': 0.78, '通新岭': 0.99, '黄木岗': 0.77}</t>
   </si>
   <si>
+    <t>{'光雅园': 0.61, '雅宝': 0.71}</t>
+  </si>
+  <si>
     <t>{'南山书城': 0.73, '桃园': 0.94}</t>
   </si>
   <si>
@@ -652,10 +844,13 @@
     <t>{'南油': 0.75, '荔林': 0.63}</t>
   </si>
   <si>
+    <t>{'平湖': 0.92}</t>
+  </si>
+  <si>
     <t>{'人民南': 0.92, '国贸': 0.7, '文锦': 0.6, '湖贝': 0.5}</t>
   </si>
   <si>
-    <t>{'红岭': 0.88, '红岭北': 0.64}</t>
+    <t>{'体育中心': 0.88, '红岭': 0.88, '红岭北': 0.64}</t>
   </si>
   <si>
     <t>{'人民南': 0.47, '向西村': 0.7, '湖贝': 0.84, '罗湖': 0.85, '老街': 0.55}</t>
@@ -664,6 +859,9 @@
     <t>{'杨美': 0.94}</t>
   </si>
   <si>
+    <t>{'五和': 0.94, '贝尔路': 0.82}</t>
+  </si>
+  <si>
     <t>{'红岭': 0.8, '红岭南': 0.38, '老街': 0.98, '鹿丹村': 0.68}</t>
   </si>
   <si>
@@ -673,7 +871,7 @@
     <t>{'前湾公园': 0.99, '铁路公园': 0.69}</t>
   </si>
   <si>
-    <t>{'上梅林': 0.88}</t>
+    <t>{'上梅林': 0.88, '冬瓜岭': 0.89, '翰岭': 0.65}</t>
   </si>
   <si>
     <t>{'侨香': 0.84, '深康': 0.8}</t>
@@ -694,18 +892,24 @@
     <t>{'市民中心': 0.77, '莲花村': 0.79}</t>
   </si>
   <si>
-    <t>{'会展中心': 0.73, '岗厦北': 0.68}</t>
-  </si>
-  <si>
-    <t>{'岗厦': 0.68, '市民中心': 0.83, '莲花村': 0.87}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 0.78, '少年宫': 0.77, '岗厦北': 0.83, '福田': 0.87}</t>
+    <t>{'会展中心': 0.73, '岗厦北': 0.67}</t>
+  </si>
+  <si>
+    <t>{'岗厦': 0.67, '市民中心': 0.81, '莲花村': 0.87}</t>
+  </si>
+  <si>
+    <t>{'华为': 0.88, '雪象': 0.73}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 0.78, '少年宫': 0.77, '岗厦北': 0.81, '福田': 0.87}</t>
   </si>
   <si>
     <t>{'太安': 0.84}</t>
   </si>
   <si>
+    <t>{'双拥街': 0.92, '禾花': 0.98}</t>
+  </si>
+  <si>
     <t>{'梦海': 0.68}</t>
   </si>
   <si>
@@ -715,15 +919,24 @@
     <t>{'临海': 0.66}</t>
   </si>
   <si>
+    <t>{'莲塘口岸': 0.95}</t>
+  </si>
+  <si>
     <t>{'湖贝': 0.62, '老街': 0.81}</t>
   </si>
   <si>
     <t>{'香梅': 0.97}</t>
   </si>
   <si>
+    <t>{'华南城': 0.74}</t>
+  </si>
+  <si>
     <t>{'坂田': 0.94}</t>
   </si>
   <si>
+    <t>{'溪头': 0.86}</t>
+  </si>
+  <si>
     <t>{'前海湾': 0.53, '鲤鱼门': 0.53}</t>
   </si>
   <si>
@@ -739,9 +952,15 @@
     <t>{'上梅林': 0.75}</t>
   </si>
   <si>
+    <t>{'民乐': 0.45}</t>
+  </si>
+  <si>
     <t>{'前湾': 0.49, '前湾公园': 1.0, '怡海': 0.68}</t>
   </si>
   <si>
+    <t>{'梅林关': 0.45}</t>
+  </si>
+  <si>
     <t>{'海上世界': 0.6}</t>
   </si>
   <si>
@@ -751,7 +970,7 @@
     <t>{'上沙': 0.84, '益田': 1.0}</t>
   </si>
   <si>
-    <t>{'八卦岭': 0.7, '红岭北': 0.94, '银湖': 0.81}</t>
+    <t>{'八卦岭': 0.72, '红岭北': 0.94, '银湖': 0.8}</t>
   </si>
   <si>
     <t>{'灵芝': 0.91}</t>
@@ -775,16 +994,25 @@
     <t>{'红树湾南': 0.74}</t>
   </si>
   <si>
+    <t>{'清湖北': 0.97}</t>
+  </si>
+  <si>
+    <t>{'清湖': 0.97}</t>
+  </si>
+  <si>
     <t>{'向西村': 0.5, '国贸': 0.84, '文锦': 0.61, '晒布': 0.62, '老街': 0.87}</t>
   </si>
   <si>
     <t>{'海月': 0.79}</t>
   </si>
   <si>
+    <t>{'松岗': 0.86}</t>
+  </si>
+  <si>
     <t>{'洪浪北': 0.91}</t>
   </si>
   <si>
-    <t>{'华强北': 0.73, '华强路': 0.89, '华新': 0.78, '科学馆': 0.5, '通新岭': 0.64}</t>
+    <t>{'华强北': 0.73, '华强路': 0.89, '华新': 0.78, '科学馆': 0.51, '通新岭': 0.64}</t>
   </si>
   <si>
     <t>{'茶光': 0.92}</t>
@@ -799,7 +1027,7 @@
     <t>{'世界之窗': 0.8}</t>
   </si>
   <si>
-    <t>{'福民': 0.84, '福田口岸': 0.83}</t>
+    <t>{'福民': 0.84, '福田口岸': 0.87}</t>
   </si>
   <si>
     <t>{'石厦': 0.64, '福民': 0.63}</t>
@@ -814,16 +1042,19 @@
     <t>{'西乡': 0.71}</t>
   </si>
   <si>
-    <t>{'皇岗口岸': 0.84, '皇岗村': 0.63, '福田口岸': 0.9}</t>
+    <t>{'皇岗口岸': 0.84, '皇岗村': 0.63, '福田口岸': 0.72}</t>
   </si>
   <si>
     <t>{'市民中心': 0.87, '莲花西': 0.79, '购物公园': 0.63}</t>
   </si>
   <si>
-    <t>{'皇岗口岸': 0.83, '福民': 0.9}</t>
-  </si>
-  <si>
-    <t>{'华强南': 0.92, '燕南': 0.5, '通新岭': 0.96}</t>
+    <t>{'皇岗口岸': 0.87, '福民': 0.72}</t>
+  </si>
+  <si>
+    <t>{'平湖': 0.98}</t>
+  </si>
+  <si>
+    <t>{'华强南': 0.94, '燕南': 0.51, '红岭南': 0.99, '通新岭': 0.95}</t>
   </si>
   <si>
     <t>{'粤海门': 0.63, '高新南': 0.76}</t>
@@ -841,10 +1072,10 @@
     <t>{'园岭': 0.88, '大剧院': 0.8, '红岭南': 0.94, '通新岭': 0.86}</t>
   </si>
   <si>
-    <t>{'八卦岭': 0.95, '园岭': 0.64, '泥岗': 0.94, '笋岗': 0.73}</t>
-  </si>
-  <si>
-    <t>{'大剧院': 0.38, '红岭': 0.94, '鹿丹村': 0.62}</t>
+    <t>{'八卦岭': 0.99, '园岭': 0.64, '泥岗': 0.94, '笋岗': 0.73}</t>
+  </si>
+  <si>
+    <t>{'大剧院': 0.38, '科学馆': 0.99, '红岭': 0.94, '鹿丹村': 0.62}</t>
   </si>
   <si>
     <t>{'红树湾南': 0.39}</t>
@@ -856,6 +1087,9 @@
     <t>{'人民南': 0.39, '国贸': 0.85}</t>
   </si>
   <si>
+    <t>{'孖岭': 0.65}</t>
+  </si>
+  <si>
     <t>{'宝安中心': 0.84}</t>
   </si>
   <si>
@@ -871,6 +1105,15 @@
     <t>{'铁路公园': 0.67}</t>
   </si>
   <si>
+    <t>{'仙湖路': 0.81}</t>
+  </si>
+  <si>
+    <t>{'新秀': 0.95}</t>
+  </si>
+  <si>
+    <t>{'冬瓜岭': 0.84}</t>
+  </si>
+  <si>
     <t>{'少年宫': 0.79, '岗厦北': 0.87}</t>
   </si>
   <si>
@@ -886,6 +1129,9 @@
     <t>{'碧海湾': 0.71}</t>
   </si>
   <si>
+    <t>{'华为': 0.97, '坂田北': 0.82}</t>
+  </si>
+  <si>
     <t>{'会展中心': 0.67, '福田': 0.63}</t>
   </si>
   <si>
@@ -895,18 +1141,24 @@
     <t>{'下沙': 0.83, '农林': 0.92}</t>
   </si>
   <si>
-    <t>{'华新': 0.99, '燕南': 0.64, '科学馆': 0.96, '红岭': 0.86}</t>
+    <t>{'体育中心': 0.62, '华新': 0.99, '燕南': 0.64, '科学馆': 0.95, '红岭': 0.86}</t>
   </si>
   <si>
     <t>{'妈湾': 0.69, '荔湾': 0.67}</t>
   </si>
   <si>
-    <t>{'八卦岭': 0.9, '泥岗': 0.81}</t>
+    <t>{'八卦岭': 0.86, '泥岗': 0.8}</t>
   </si>
   <si>
     <t>{'下水径': 0.82}</t>
   </si>
   <si>
+    <t>{'南坑': 0.71}</t>
+  </si>
+  <si>
+    <t>{'岗头': 0.73}</t>
+  </si>
+  <si>
     <t>{'景田': 0.97, '香蜜湖': 0.73}</t>
   </si>
   <si>
@@ -931,7 +1183,7 @@
     <t>{'人民南': 0.98, '大剧院': 0.68, '红岭南': 0.62}</t>
   </si>
   <si>
-    <t>{'华新': 0.77}</t>
+    <t>{'体育中心': 0.92, '华新': 0.77}</t>
   </si>
   <si>
     <t>{'文锦': 0.7}</t>
@@ -940,22 +1192,31 @@
     <t>{'桃源村': 0.88}</t>
   </si>
   <si>
-    <t>{'上塘': 0.85}</t>
-  </si>
-  <si>
-    <t>{'红山': 2.02, '龙华': 1.89, '龙胜': 0.85}</t>
-  </si>
-  <si>
-    <t>{'下梅林': 1.89, '孖岭': 0.88, '少年宫': 2.43, '景田': 2.51, '梅景': 2.44, '梅村': 0.75, '民乐': 2.85, '莲花北': 1.1, '莲花村': 2.57, '莲花西': 2.82}</t>
-  </si>
-  <si>
-    <t>{'下水径': 0.97, '布吉': 2.8, '杨美': 2.66, '长龙': 1.78}</t>
-  </si>
-  <si>
-    <t>{'下沙': 1.24, '会展中心': 2.86, '农林': 2.5, '沙尾': 0.84, '皇岗村': 2.5, '益田': 1.84, '石厦': 1.86, '福田': 2.48, '竹子林': 2.42, '莲花西': 2.87, '购物公园': 2.26, '车公庙': 1.63, '香梅': 2.35, '香蜜湖': 1.62}</t>
-  </si>
-  <si>
-    <t>{'上梅林': 1.89, '孖岭': 2.69, '少年宫': 2.68, '景田': 1.37, '梅景': 0.65, '梅村': 1.14, '莲花北': 1.9, '莲花西': 2.28, '香梅': 2.27, '香梅北': 1.61, '香蜜': 2.33, '香蜜湖': 3.0}</t>
+    <t>{'上塘': 0.85, '上芬': 0.68}</t>
+  </si>
+  <si>
+    <t>{'上芬': 0.53, '元芬': 2.27, '红山': 2.02, '龙华': 1.89, '龙胜': 0.85}</t>
+  </si>
+  <si>
+    <t>{'官田': 1.31}</t>
+  </si>
+  <si>
+    <t>{'凉帽山': 1.2, '华南城': 2.49, '木古': 1.76, '甘坑': 2.29}</t>
+  </si>
+  <si>
+    <t>{'下梅林': 1.89, '冬瓜岭': 1.39, '孖岭': 0.88, '少年宫': 2.43, '景田': 2.51, '梅景': 2.44, '梅村': 0.75, '梅林关': 2.75, '民乐': 2.85, '翰岭': 1.06, '莲花北': 1.1, '莲花村': 2.57, '莲花西': 2.82}</t>
+  </si>
+  <si>
+    <t>{'下水径': 0.97, '布吉': 2.8, '杨美': 2.66, '甘坑': 2.87, '长龙': 1.78}</t>
+  </si>
+  <si>
+    <t>{'下沙': 1.24, '会展中心': 2.86, '农林': 2.5, '沙尾': 0.84, '皇岗村': 2.5, '益田': 1.84, '石厦': 1.86, '福保': 2.78, '福田': 2.48, '竹子林': 2.42, '莲花西': 2.87, '购物公园': 2.26, '车公庙': 1.63, '香梅': 2.35, '香蜜湖': 1.62}</t>
+  </si>
+  <si>
+    <t>{'上塘': 0.53, '元芬': 2.13, '红山': 2.17, '龙华': 1.38, '龙胜': 0.68}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 1.89, '冬瓜岭': 2.71, '孖岭': 2.69, '少年宫': 2.68, '景田': 1.37, '梅景': 0.65, '梅村': 1.14, '翰岭': 2.94, '莲花北': 1.9, '莲花西': 2.28, '香梅': 2.27, '香梅北': 1.61, '香蜜': 2.33, '香蜜湖': 3.0}</t>
   </si>
   <si>
     <t>{'上水径': 0.97, '大芬': 2.84, '布吉': 1.83, '木棉湾': 2.2, '百鸽笼': 2.96, '长龙': 0.82}</t>
@@ -976,13 +1237,19 @@
     <t>{'大芬': 1.17, '木棉湾': 2.31}</t>
   </si>
   <si>
-    <t>{'坂田': 1.05, '杨美': 1.98, '民治': 2.28}</t>
-  </si>
-  <si>
-    <t>{'向西村': 0.92, '园岭': 2.7, '国贸': 0.47, '大剧院': 1.27, '文锦': 1.51, '晒布': 1.59, '湖贝': 1.23, '燕南': 2.81, '科学馆': 2.45, '红岭': 2.0, '红岭南': 1.46, '罗湖': 0.39, '翠竹': 2.6, '老街': 0.98, '通新岭': 2.71, '鹿丹村': 0.98, '黄贝岭': 2.21}</t>
-  </si>
-  <si>
-    <t>{'上沙': 2.86, '华强北': 2.72, '华强南': 2.66, '华强路': 2.55, '少年宫': 1.54, '岗厦': 0.73, '岗厦北': 1.08, '市民中心': 0.78, '景田': 2.76, '沙尾': 2.46, '皇岗口岸': 1.96, '皇岗村': 1.3, '益田': 2.3, '石厦': 1.45, '福民': 1.38, '福田': 1.03, '福田口岸': 2.28, '莲花北': 2.87, '莲花村': 1.69, '莲花西': 1.74, '购物公园': 0.67, '赤尾': 2.34, '香梅': 2.49, '香蜜湖': 2.35}</t>
+    <t>{'光雅园': 1.16, '华为': 2.71, '南坑': 1.77, '坂田': 1.05, '坂田北': 0.94, '杨美': 1.98, '民治': 2.28, '贝尔路': 1.76, '雅宝': 2.48}</t>
+  </si>
+  <si>
+    <t>{'向西村': 0.92, '园岭': 2.7, '国贸': 0.47, '大剧院': 1.27, '文锦': 1.51, '晒布': 1.59, '湖贝': 1.23, '燕南': 2.81, '科学馆': 2.43, '红岭': 2.0, '红岭南': 1.46, '罗湖': 0.39, '翠竹': 2.6, '老街': 0.98, '通新岭': 2.71, '鹿丹村': 0.98, '黄贝岭': 2.21}</t>
+  </si>
+  <si>
+    <t>{'怡景': 2.85, '新秀': 2.57, '梧桐山南': 1.86, '莲塘': 0.81, '莲塘口岸': 1.62}</t>
+  </si>
+  <si>
+    <t>{'上沙': 2.86, '冬瓜岭': 2.93, '华强北': 2.72, '华强南': 2.66, '华强路': 2.55, '少年宫': 1.54, '岗厦': 0.73, '岗厦北': 1.06, '市民中心': 0.78, '景田': 2.76, '沙尾': 2.46, '皇岗口岸': 1.96, '皇岗村': 1.3, '益田': 2.3, '石厦': 1.45, '福民': 1.38, '福田': 1.03, '福田口岸': 2.09, '莲花北': 2.87, '莲花村': 1.69, '莲花西': 1.74, '购物公园': 0.67, '赤尾': 2.34, '香梅': 2.49, '香蜜湖': 2.35}</t>
+  </si>
+  <si>
+    <t>{'八卦岭': 0.82, '冬瓜岭': 3.0, '华强北': 1.58, '华强南': 2.16, '华强路': 1.94, '华新': 1.16, '园岭': 0.88, '国贸': 2.87, '大剧院': 1.87, '晒布': 2.79, '泥岗': 1.47, '洪湖': 2.99, '燕南': 1.18, '科学馆': 1.57, '笋岗': 1.84, '红岭': 1.12, '红岭北': 1.17, '红岭南': 1.86, '老街': 2.43, '莲花村': 2.98, '赤尾': 2.89, '通新岭': 0.62, '银湖': 1.65, '鹿丹村': 2.47, '黄木岗': 0.92}</t>
   </si>
   <si>
     <t>{'下沙': 2.87, '世界之窗': 2.36, '侨城北': 1.5, '侨香': 2.65, '农林': 2.38, '华侨城': 1.16, '安托山': 2.07, '深云': 2.7, '深圳湾公园': 1.26, '深康': 1.58, '深湾': 2.12, '竹子林': 1.78, '红树湾南': 2.79}</t>
@@ -994,7 +1261,22 @@
     <t>{'下沙': 2.54, '侨城东': 2.65, '侨城北': 2.67, '农林': 1.11, '安托山': 0.84, '景田': 3.0, '梅景': 2.72, '深云': 2.25, '深康': 1.64, '竹子林': 1.83, '车公庙': 1.91, '香梅': 2.64, '香梅北': 1.94, '香蜜': 1.03, '香蜜湖': 2.77}</t>
   </si>
   <si>
-    <t>{'华强北': 2.18, '华强南': 2.88, '华强路': 2.6, '华新': 1.68, '园岭': 1.15, '大剧院': 2.59, '孖岭': 2.9, '泥岗': 0.7, '洪湖': 2.85, '燕南': 1.95, '科学馆': 2.37, '笋岗': 1.67, '红岭': 1.8, '红岭北': 0.95, '红岭南': 2.64, '老街': 2.99, '通新岭': 1.43, '银湖': 0.9, '黄木岗': 1.05}</t>
+    <t>{'上塘': 2.27, '上芬': 2.13, '阳台山东': 1.89, '龙华': 1.85, '龙胜': 1.47}</t>
+  </si>
+  <si>
+    <t>{'光明大街': 1.2, '楼村': 2.26, '科学公园': 1.26}</t>
+  </si>
+  <si>
+    <t>{'光明': 1.2, '凤凰城': 1.91, '楼村': 2.51, '科学公园': 1.94}</t>
+  </si>
+  <si>
+    <t>{'五和': 1.16, '南坑': 0.61, '坂田': 1.6, '坂田北': 2.08, '杨美': 2.27, '梅林关': 2.56, '民乐': 2.77, '民治': 2.06, '白石龙': 2.52, '贝尔路': 2.87, '雅宝': 1.32}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 0.82, '冬瓜岭': 2.78, '华强北': 2.16, '华强南': 2.86, '华强路': 2.58, '华新': 1.66, '园岭': 1.19, '大剧院': 2.62, '孖岭': 2.85, '泥岗': 0.72, '洪湖': 2.89, '燕南': 1.95, '科学馆': 2.37, '笋岗': 1.72, '红岭': 1.82, '红岭北': 0.99, '红岭南': 2.66, '翰岭': 2.97, '通新岭': 1.43, '银湖': 0.86, '黄木岗': 1.02}</t>
+  </si>
+  <si>
+    <t>{'合水口': 1.17, '红花山': 1.63, '薯田埔': 2.46}</t>
   </si>
   <si>
     <t>{'塘坑': 1.35}</t>
@@ -1006,6 +1288,15 @@
     <t>{'上沙': 2.5, '下沙': 1.43, '侨城东': 2.38, '侨城北': 3.0, '侨香': 1.11, '安托山': 1.54, '景田': 2.97, '深康': 2.09, '竹子林': 0.9, '车公庙': 0.92, '香梅': 2.28, '香梅北': 2.12, '香蜜': 1.49, '香蜜湖': 2.11}</t>
   </si>
   <si>
+    <t>{'上梅林': 1.39, '下梅林': 2.71, '会展中心': 2.93, '体育中心': 3.0, '八卦岭': 2.78, '华强北': 2.55, '华强路': 2.86, '华新': 2.34, '孖岭': 0.89, '少年宫': 1.52, '岗厦': 2.85, '岗厦北': 2.18, '市民中心': 2.18, '景田': 2.61, '梅村': 1.79, '福田': 2.72, '翰岭': 1.53, '莲花北': 0.84, '莲花村': 1.31, '莲花西': 2.37, '银湖': 2.45, '黄木岗': 2.09}</t>
+  </si>
+  <si>
+    <t>{'上李朗': 1.2, '木古': 2.58, '甘坑': 1.36}</t>
+  </si>
+  <si>
+    <t>{'光明大街': 1.91, '长圳': 2.35}</t>
+  </si>
+  <si>
     <t>{'临海': 1.18, '前湾': 1.66, '前湾公园': 2.49, '大新': 1.84, '宝华': 1.92, '宝安': 2.65, '宝安中心': 2.23, '怡海': 2.54, '新安': 1.2, '桂湾': 0.53, '桃园': 2.82, '梦海': 2.03, '翻身': 2.56, '鲤鱼门': 0.78}</t>
   </si>
   <si>
@@ -1015,19 +1306,28 @@
     <t>{'前海湾': 2.49, '前湾': 0.94, '妈湾': 0.99, '怡海': 1.47, '桂湾': 2.0, '梦海': 1.0, '荔林': 2.47, '荔湾': 2.07, '铁路公园': 1.47, '鲤鱼门': 2.25}</t>
   </si>
   <si>
+    <t>{'五和': 2.71, '坂田': 2.58, '坂田北': 1.77, '岗头': 0.88, '杨美': 2.94, '贝尔路': 0.97, '雪象': 1.41}</t>
+  </si>
+  <si>
     <t>{'世界之窗': 1.21, '侨城东': 1.16, '侨城北': 1.23, '安托山': 2.74, '桃源村': 2.96, '深云': 2.7, '深圳湾公园': 1.54, '深康': 2.0, '深湾': 1.35, '白石洲': 2.0, '竹子林': 2.93, '红树湾': 1.97, '红树湾南': 1.84}</t>
   </si>
   <si>
-    <t>{'会展中心': 2.72, '八卦岭': 2.18, '华强南': 0.82, '华强路': 0.44, '华新': 0.52, '园岭': 2.36, '大剧院': 2.32, '少年宫': 2.63, '岗厦': 2.07, '岗厦北': 1.71, '市民中心': 2.51, '泥岗': 2.89, '燕南': 0.73, '皇岗口岸': 2.78, '科学馆': 1.07, '红岭': 2.02, '红岭北': 2.76, '红岭南': 2.05, '莲花村': 1.87, '赤尾': 1.46, '通新岭': 1.23, '银湖': 2.7, '鹿丹村': 2.57, '黄木岗': 1.28}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 2.66, '八卦岭': 2.88, '华强北': 0.82, '华强路': 0.4, '华新': 1.31, '园岭': 2.79, '大剧院': 2.21, '岗厦': 1.93, '岗厦北': 1.85, '市民中心': 2.68, '燕南': 1.01, '皇岗口岸': 2.16, '福民': 2.65, '福田口岸': 2.99, '科学馆': 0.92, '红岭': 2.21, '红岭南': 1.87, '莲花村': 2.33, '赤尾': 0.73, '通新岭': 1.64, '鹿丹村': 2.25, '黄木岗': 2.07}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 2.55, '八卦岭': 2.6, '华强北': 0.44, '华强南': 0.4, '华新': 0.96, '园岭': 2.66, '大剧院': 2.33, '少年宫': 2.72, '岗厦': 1.85, '岗厦北': 1.63, '市民中心': 2.46, '燕南': 0.89, '皇岗口岸': 2.37, '福民': 2.75, '科学馆': 1.01, '红岭': 2.18, '红岭南': 2.02, '莲花村': 2.0, '赤尾': 1.02, '通新岭': 1.5, '鹿丹村': 2.47, '黄木岗': 1.72}</t>
-  </si>
-  <si>
-    <t>{'八卦岭': 1.68, '华强北': 0.52, '华强南': 1.31, '华强路': 0.96, '园岭': 2.0, '大剧院': 2.31, '孖岭': 2.91, '少年宫': 2.72, '岗厦': 2.46, '岗厦北': 2.0, '市民中心': 2.74, '泥岗': 2.38, '燕南': 0.78, '科学馆': 1.26, '笋岗': 3.0, '红岭': 1.84, '红岭北': 2.32, '红岭南': 2.11, '莲花村': 1.93, '赤尾': 1.98, '通新岭': 0.99, '银湖': 2.18, '鹿丹村': 2.7, '黄木岗': 0.77}</t>
+    <t>{'上李朗': 2.49, '双拥街': 2.75, '平湖': 2.0, '木古': 0.74, '禾花': 1.12}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 2.72, '体育中心': 1.58, '八卦岭': 2.16, '冬瓜岭': 2.55, '华强南': 0.82, '华强路': 0.44, '华新': 0.52, '园岭': 2.36, '大剧院': 2.32, '少年宫': 2.63, '岗厦': 2.07, '岗厦北': 1.73, '市民中心': 2.51, '泥岗': 2.89, '燕南': 0.73, '皇岗口岸': 2.78, '科学馆': 1.09, '红岭': 2.02, '红岭北': 2.76, '红岭南': 2.05, '莲花村': 1.87, '赤尾': 1.46, '通新岭': 1.23, '银湖': 2.69, '鹿丹村': 2.57, '黄木岗': 1.28}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 2.66, '体育中心': 2.16, '八卦岭': 2.86, '华强北': 0.82, '华强路': 0.4, '华新': 1.31, '园岭': 2.79, '大剧院': 2.21, '岗厦': 1.93, '岗厦北': 1.88, '市民中心': 2.68, '燕南': 1.01, '皇岗口岸': 2.16, '福民': 2.65, '科学馆': 0.94, '红岭': 2.21, '红岭南': 1.87, '莲花村': 2.33, '赤尾': 0.73, '通新岭': 1.64, '鹿丹村': 2.25, '黄木岗': 2.07}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 2.55, '体育中心': 1.94, '八卦岭': 2.58, '冬瓜岭': 2.86, '华强北': 0.44, '华强南': 0.4, '华新': 0.96, '园岭': 2.66, '大剧院': 2.33, '少年宫': 2.72, '岗厦': 1.85, '岗厦北': 1.66, '市民中心': 2.46, '燕南': 0.89, '皇岗口岸': 2.37, '福民': 2.75, '科学馆': 1.03, '红岭': 2.18, '红岭南': 2.02, '莲花村': 2.0, '赤尾': 1.02, '通新岭': 1.5, '鹿丹村': 2.47, '黄木岗': 1.72}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 1.16, '八卦岭': 1.66, '冬瓜岭': 2.34, '华强北': 0.52, '华强南': 1.31, '华强路': 0.96, '园岭': 2.0, '大剧院': 2.31, '孖岭': 2.91, '少年宫': 2.72, '岗厦': 2.46, '岗厦北': 2.03, '市民中心': 2.74, '泥岗': 2.38, '燕南': 0.78, '科学馆': 1.28, '笋岗': 3.0, '红岭': 1.84, '红岭北': 2.32, '红岭南': 2.11, '莲花村': 1.93, '赤尾': 1.98, '通新岭': 0.99, '银湖': 2.17, '鹿丹村': 2.7, '黄木岗': 0.77}</t>
+  </si>
+  <si>
+    <t>{'五和': 1.77, '光雅园': 0.61, '坂田': 2.13, '坂田北': 2.69, '杨美': 2.66, '梅林关': 1.97, '民乐': 2.22, '民治': 2.15, '白石龙': 2.13, '雅宝': 0.71}</t>
   </si>
   <si>
     <t>{'前湾': 2.86, '南山书城': 0.73, '南油': 1.58, '南油西': 1.75, '后海': 2.04, '大新': 1.26, '怡海': 2.27, '桂湾': 2.79, '桃园': 0.94, '梦海': 2.61, '海月': 3.0, '深大': 2.67, '深大南': 1.26, '登良': 2.19, '科苑': 2.34, '粤海门': 2.45, '荔林': 1.72, '高新南': 2.89, '鲤鱼门': 2.29}</t>
@@ -1045,13 +1345,19 @@
     <t>{'双龙': 1.44, '吉祥': 2.58, '龙城广场': 1.25}</t>
   </si>
   <si>
+    <t>{'华南城': 2.75, '平湖': 0.92, '禾花': 1.86}</t>
+  </si>
+  <si>
     <t>{'南联': 1.44, '龙城广场': 2.69}</t>
   </si>
   <si>
+    <t>{'公明广场': 1.17, '红花山': 2.74, '薯田埔': 1.36}</t>
+  </si>
+  <si>
     <t>{'南联': 2.58, '爱联': 1.68, '龙城广场': 1.34}</t>
   </si>
   <si>
-    <t>{'松岗': 2.21, '沙井': 2.43}</t>
+    <t>{'松岗': 2.2, '沙井': 2.43, '溪头': 2.69}</t>
   </si>
   <si>
     <t>{'南山': 2.04, '南山书城': 1.43, '南油': 1.97, '南油西': 2.68, '桃园': 2.38, '海月': 2.06, '深大': 2.26, '深大南': 1.1, '湾厦': 2.82, '登良': 1.15, '科苑': 1.03, '粤海门': 1.62, '红树湾': 2.77, '高新南': 1.78, '高新园': 2.69}</t>
@@ -1063,13 +1369,16 @@
     <t>{'人民南': 0.92, '园岭': 2.85, '国贸': 0.7, '大剧院': 1.86, '怡景': 2.32, '文锦': 0.6, '新秀': 2.52, '晒布': 1.1, '洪湖': 2.94, '湖贝': 0.5, '红岭': 2.38, '红岭南': 2.16, '罗湖': 1.13, '翠竹': 1.87, '老街': 1.03, '鹿丹村': 1.82, '黄贝岭': 1.29}</t>
   </si>
   <si>
-    <t>{'人民南': 2.7, '八卦岭': 1.15, '华强北': 2.36, '华强南': 2.79, '华强路': 2.66, '华新': 2.0, '向西村': 2.85, '国贸': 2.37, '大剧院': 1.65, '晒布': 2.02, '水贝': 2.88, '泥岗': 1.46, '洪湖': 2.14, '湖贝': 2.53, '燕南': 1.79, '田贝': 2.89, '科学馆': 2.0, '笋岗': 1.06, '红岭': 0.88, '红岭北': 0.64, '红岭南': 1.82, '翠竹': 2.61, '老街': 1.85, '通新岭': 1.16, '银湖': 2.02, '鹿丹村': 2.33, '黄木岗': 1.77}</t>
-  </si>
-  <si>
-    <t>{'人民南': 0.47, '向西村': 0.7, '园岭': 2.37, '大剧院': 1.16, '怡景': 2.82, '文锦': 1.27, '晒布': 1.13, '洪湖': 2.96, '湖贝': 0.84, '燕南': 2.76, '科学馆': 2.46, '笋岗': 2.75, '红岭': 1.76, '红岭北': 2.9, '红岭南': 1.45, '罗湖': 0.85, '翠竹': 2.15, '老街': 0.55, '通新岭': 2.55, '鹿丹村': 1.14, '黄贝岭': 1.93}</t>
-  </si>
-  <si>
-    <t>{'五和': 1.05, '杨美': 0.94}</t>
+    <t>{'人民南': 2.7, '体育中心': 0.88, '八卦岭': 1.19, '华强北': 2.36, '华强南': 2.79, '华强路': 2.66, '华新': 2.0, '向西村': 2.85, '国贸': 2.37, '大剧院': 1.65, '晒布': 2.02, '水贝': 2.88, '泥岗': 1.46, '洪湖': 2.14, '湖贝': 2.53, '燕南': 1.79, '田贝': 2.89, '科学馆': 1.99, '笋岗': 1.06, '红岭': 0.88, '红岭北': 0.64, '红岭南': 1.82, '翠竹': 2.61, '老街': 1.85, '通新岭': 1.16, '银湖': 2.01, '鹿丹村': 2.33, '黄木岗': 1.77}</t>
+  </si>
+  <si>
+    <t>{'人民南': 0.47, '体育中心': 2.87, '向西村': 0.7, '园岭': 2.37, '大剧院': 1.16, '怡景': 2.82, '文锦': 1.27, '晒布': 1.13, '洪湖': 2.96, '湖贝': 0.84, '燕南': 2.76, '科学馆': 2.44, '笋岗': 2.75, '红岭': 1.76, '红岭北': 2.9, '红岭南': 1.45, '罗湖': 0.85, '翠竹': 2.15, '老街': 0.55, '通新岭': 2.55, '鹿丹村': 1.14, '黄贝岭': 1.93}</t>
+  </si>
+  <si>
+    <t>{'五和': 1.05, '光雅园': 1.6, '华为': 2.58, '南坑': 2.13, '坂田北': 1.13, '杨美': 0.94, '贝尔路': 1.65, '雅宝': 2.77}</t>
+  </si>
+  <si>
+    <t>{'五和': 0.94, '光雅园': 2.08, '华为': 1.77, '南坑': 2.69, '坂田': 1.13, '岗头': 2.61, '杨美': 1.93, '贝尔路': 0.82, '雪象': 2.92}</t>
   </si>
   <si>
     <t>{'宝体': 1.37, '宝华': 2.6, '宝安': 1.88, '宝安中心': 2.33, '碧海湾': 1.65, '翻身': 2.53, '西乡': 1.05}</t>
@@ -1084,7 +1393,7 @@
     <t>{'长岭陂': 1.5}</t>
   </si>
   <si>
-    <t>{'人民南': 1.27, '八卦岭': 2.59, '华强北': 2.32, '华强南': 2.21, '华强路': 2.33, '华新': 2.31, '向西村': 1.86, '园岭': 1.65, '国贸': 1.16, '文锦': 2.38, '晒布': 1.74, '湖贝': 1.83, '燕南': 1.6, '科学馆': 1.33, '笋岗': 2.43, '红岭': 0.8, '红岭北': 2.28, '红岭南': 0.38, '罗湖': 1.55, '翠竹': 2.77, '老街': 0.98, '赤尾': 2.74, '通新岭': 1.44, '鹿丹村': 0.68, '黄木岗': 2.62, '黄贝岭': 2.97}</t>
+    <t>{'人民南': 1.27, '体育中心': 1.87, '八卦岭': 2.62, '华强北': 2.32, '华强南': 2.21, '华强路': 2.33, '华新': 2.31, '向西村': 1.86, '园岭': 1.65, '国贸': 1.16, '文锦': 2.38, '晒布': 1.74, '湖贝': 1.83, '燕南': 1.6, '科学馆': 1.3, '笋岗': 2.43, '红岭': 0.8, '红岭北': 2.28, '红岭南': 0.38, '罗湖': 1.55, '翠竹': 2.77, '老街': 0.98, '赤尾': 2.74, '通新岭': 1.44, '鹿丹村': 0.68, '黄木岗': 2.62, '黄贝岭': 2.97}</t>
   </si>
   <si>
     <t>{'桃源村': 2.99, '珠光': 1.6, '留仙洞': 2.24, '茶光': 1.42, '西丽': 1.13, '西丽湖': 1.29, '龙井': 2.21}</t>
@@ -1099,18 +1408,21 @@
     <t>{'爱联': 1.46, '荷坳': 1.46}</t>
   </si>
   <si>
-    <t>{'布心': 0.84, '怡景': 1.98, '水贝': 1.25, '洪湖': 1.72, '田贝': 1.0, '百鸽笼': 2.54, '笋岗': 2.88, '翠竹': 2.06, '草埔': 2.44}</t>
+    <t>{'布心': 0.84, '怡景': 1.98, '水贝': 1.25, '洪湖': 1.72, '田贝': 1.0, '百鸽笼': 2.54, '笋岗': 2.88, '翠竹': 2.06, '草埔': 2.44, '莲塘口岸': 2.92}</t>
   </si>
   <si>
     <t>{'前湾': 1.9, '前湾公园': 0.99, '怡海': 1.99, '桂湾': 2.99, '梦海': 1.8, '荔林': 2.83, '荔湾': 1.36, '铁路公园': 0.69}</t>
   </si>
   <si>
-    <t>{'上梅林': 0.88, '下梅林': 2.69, '八卦岭': 2.9, '华新': 2.91, '少年宫': 2.34, '梅村': 1.58, '莲花北': 1.23, '莲花村': 2.2, '银湖': 2.26, '黄木岗': 2.44}</t>
+    <t>{'上梅林': 0.88, '下梅林': 2.69, '八卦岭': 2.85, '冬瓜岭': 0.89, '华新': 2.91, '少年宫': 2.34, '梅村': 1.58, '翰岭': 0.65, '莲花北': 1.23, '莲花村': 2.2, '银湖': 2.27, '黄木岗': 2.44}</t>
   </si>
   <si>
     <t>{'下沙': 2.89, '侨城东': 2.07, '侨城北': 1.83, '侨香': 0.84, '农林': 1.54, '华侨城': 2.74, '桃源村': 2.78, '深云': 1.55, '深康': 0.8, '竹子林': 1.89, '车公庙': 2.45, '香梅北': 2.78, '香蜜': 1.86}</t>
   </si>
   <si>
+    <t>{'上屋': 1.31}</t>
+  </si>
+  <si>
     <t>{'临海': 2.05, '坪洲': 1.37, '宝华': 1.32, '宝安': 0.68, '宝安中心': 0.96, '新安': 2.06, '灵芝': 2.58, '碧海湾': 2.98, '翻身': 1.3, '西乡': 2.41}</t>
   </si>
   <si>
@@ -1123,16 +1435,19 @@
     <t>{'临海': 1.18, '前海湾': 2.23, '坪洲': 2.33, '宝体': 0.96, '宝华': 0.59, '宝安': 0.7, '新安': 1.1, '桂湾': 2.7, '灵芝': 2.36, '翻身': 0.84, '鲤鱼门': 2.99}</t>
   </si>
   <si>
-    <t>{'上梅林': 2.43, '下梅林': 2.68, '会展中心': 1.54, '华强北': 2.63, '华强路': 2.72, '华新': 2.72, '孖岭': 2.34, '岗厦': 1.74, '岗厦北': 1.26, '市民中心': 0.77, '景田': 1.81, '梅景': 2.67, '梅村': 2.34, '皇岗村': 2.83, '石厦': 2.85, '福民': 2.89, '福田': 1.21, '莲花北': 1.33, '莲花村': 0.79, '莲花西': 1.06, '购物公园': 1.66, '香梅': 2.14, '香梅北': 2.88, '香蜜湖': 2.46, '黄木岗': 2.9}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 0.73, '华强北': 2.07, '华强南': 1.93, '华强路': 1.85, '华新': 2.46, '少年宫': 1.74, '岗厦北': 0.68, '市民中心': 1.05, '燕南': 2.72, '皇岗口岸': 1.57, '皇岗村': 1.56, '益田': 2.72, '石厦': 1.94, '福民': 1.31, '福田': 1.68, '福田口岸': 2.13, '科学馆': 2.82, '莲花北': 3.0, '莲花村': 1.53, '莲花西': 2.28, '购物公园': 1.4, '赤尾': 1.63}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 1.08, '华强北': 1.71, '华强南': 1.85, '华强路': 1.63, '华新': 2.0, '少年宫': 1.26, '岗厦': 0.68, '市民中心': 0.83, '景田': 3.0, '燕南': 2.43, '皇岗口岸': 2.18, '皇岗村': 2.2, '石厦': 2.5, '福民': 2.0, '福田': 1.68, '福田口岸': 2.8, '科学馆': 2.64, '莲花北': 2.4, '莲花村': 0.87, '莲花西': 2.07, '购物公园': 1.66, '赤尾': 1.82, '通新岭': 2.92, '黄木岗': 2.49}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 0.78, '华强北': 2.51, '华强南': 2.68, '华强路': 2.46, '华新': 2.74, '少年宫': 0.77, '岗厦': 1.05, '岗厦北': 0.83, '景田': 2.25, '皇岗口岸': 2.58, '皇岗村': 2.07, '石厦': 2.15, '福民': 2.12, '福田': 0.87, '莲花北': 2.1, '莲花村': 1.03, '莲花西': 1.27, '购物公园': 1.04, '赤尾': 2.57, '香梅': 2.25, '香蜜湖': 2.34}</t>
+    <t>{'上梅林': 2.43, '下梅林': 2.68, '会展中心': 1.54, '冬瓜岭': 1.52, '华强北': 2.63, '华强路': 2.72, '华新': 2.72, '孖岭': 2.34, '岗厦': 1.74, '岗厦北': 1.25, '市民中心': 0.77, '景田': 1.81, '梅景': 2.67, '梅村': 2.34, '皇岗村': 2.83, '石厦': 2.85, '福民': 2.89, '福田': 1.21, '翰岭': 2.98, '莲花北': 1.33, '莲花村': 0.79, '莲花西': 1.06, '购物公园': 1.66, '香梅': 2.14, '香梅北': 2.88, '香蜜湖': 2.46, '黄木岗': 2.9}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 0.73, '冬瓜岭': 2.85, '华强北': 2.07, '华强南': 1.93, '华强路': 1.85, '华新': 2.46, '少年宫': 1.74, '岗厦北': 0.67, '市民中心': 1.05, '燕南': 2.72, '皇岗口岸': 1.57, '皇岗村': 1.56, '益田': 2.72, '石厦': 1.94, '福民': 1.31, '福田': 1.68, '福田口岸': 2.0, '科学馆': 2.84, '莲花北': 3.0, '莲花村': 1.53, '莲花西': 2.28, '购物公园': 1.4, '赤尾': 1.63}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 1.06, '冬瓜岭': 2.18, '华强北': 1.73, '华强南': 1.88, '华强路': 1.66, '华新': 2.03, '少年宫': 1.25, '岗厦': 0.67, '市民中心': 0.81, '景田': 2.98, '燕南': 2.46, '皇岗口岸': 2.18, '皇岗村': 2.18, '石厦': 2.48, '福民': 1.99, '福田': 1.66, '福田口岸': 2.67, '科学馆': 2.69, '莲花北': 2.4, '莲花村': 0.87, '莲花西': 2.05, '购物公园': 1.63, '赤尾': 1.83, '通新岭': 2.95, '黄木岗': 2.51}</t>
+  </si>
+  <si>
+    <t>{'华为': 0.88, '坂田北': 2.61, '贝尔路': 1.8, '雪象': 0.73}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 0.78, '冬瓜岭': 2.18, '华强北': 2.51, '华强南': 2.68, '华强路': 2.46, '华新': 2.74, '少年宫': 0.77, '岗厦': 1.05, '岗厦北': 0.81, '景田': 2.25, '皇岗口岸': 2.58, '皇岗村': 2.07, '石厦': 2.15, '福民': 2.12, '福田': 0.87, '福田口岸': 2.83, '莲花北': 2.1, '莲花村': 1.03, '莲花西': 1.27, '购物公园': 1.04, '赤尾': 2.57, '香梅': 2.25, '香蜜湖': 2.34}</t>
   </si>
   <si>
     <t>{'上水径': 2.8, '下水径': 1.83, '大芬': 2.21, '布心': 2.86, '木棉湾': 1.07, '百鸽笼': 1.15, '草埔': 1.99, '长龙': 1.06}</t>
@@ -1141,25 +1456,31 @@
     <t>{'太安': 0.84, '布吉': 2.86, '怡景': 2.8, '木棉湾': 3.0, '水贝': 1.55, '洪湖': 2.31, '田贝': 1.73, '百鸽笼': 1.79, '翠竹': 2.88, '草埔': 2.25}</t>
   </si>
   <si>
-    <t>{'向西村': 2.32, '国贸': 2.82, '太安': 1.98, '布心': 2.8, '文锦': 1.78, '新秀': 1.27, '晒布': 1.94, '水贝': 2.55, '洪湖': 2.14, '湖贝': 1.98, '田贝': 1.64, '翠竹': 1.05, '老街': 2.71, '黄贝岭': 1.15}</t>
+    <t>{'华南城': 2.0, '双拥街': 0.92, '木古': 2.73, '禾花': 0.98}</t>
+  </si>
+  <si>
+    <t>{'仙湖路': 2.85, '向西村': 2.32, '国贸': 2.82, '太安': 1.98, '布心': 2.8, '文锦': 1.78, '新秀': 1.27, '晒布': 1.94, '水贝': 2.55, '洪湖': 2.14, '湖贝': 1.98, '田贝': 1.64, '翠竹': 1.05, '老街': 2.71, '莲塘口岸': 1.61, '黄贝岭': 1.15}</t>
   </si>
   <si>
     <t>{'前海湾': 2.54, '前湾': 1.16, '前湾公园': 1.47, '南山': 2.27, '南山书城': 2.6, '南油': 2.32, '南油西': 1.64, '大新': 2.25, '妈湾': 1.99, '桂湾': 2.03, '桃园': 2.91, '梦海': 0.68, '荔林': 1.02, '荔湾': 2.18, '铁路公园': 1.95, '鲤鱼门': 1.9}</t>
   </si>
   <si>
-    <t>{'人民南': 1.51, '向西村': 0.6, '国贸': 1.27, '大剧院': 2.38, '怡景': 1.78, '新秀': 1.93, '晒布': 1.15, '洪湖': 2.79, '湖贝': 0.61, '田贝': 2.78, '红岭': 2.79, '红岭南': 2.7, '罗湖': 1.7, '翠竹': 1.55, '老街': 1.46, '鹿丹村': 2.41, '黄贝岭': 0.7}</t>
+    <t>{'人民南': 1.51, '向西村': 0.6, '国贸': 1.27, '大剧院': 2.38, '怡景': 1.78, '新秀': 1.93, '晒布': 1.15, '洪湖': 2.79, '湖贝': 0.61, '田贝': 2.78, '红岭': 2.79, '红岭南': 2.7, '罗湖': 1.7, '翠竹': 1.55, '老街': 1.46, '莲塘口岸': 2.82, '鹿丹村': 2.41, '黄贝岭': 0.7}</t>
   </si>
   <si>
     <t>{'临海': 0.66, '前海湾': 1.2, '前湾': 2.8, '大新': 2.7, '宝体': 2.06, '宝华': 1.01, '宝安': 1.66, '宝安中心': 1.1, '桂湾': 1.71, '灵芝': 2.58, '翻身': 1.37, '鲤鱼门': 1.93}</t>
   </si>
   <si>
-    <t>{'向西村': 2.52, '怡景': 1.27, '文锦': 1.93, '晒布': 2.69, '湖贝': 2.43, '田贝': 2.9, '翠竹': 2.16, '黄贝岭': 1.29}</t>
-  </si>
-  <si>
-    <t>{'人民南': 1.59, '向西村': 1.1, '园岭': 2.02, '国贸': 1.13, '大剧院': 1.74, '怡景': 1.94, '文锦': 1.15, '新秀': 2.69, '水贝': 2.76, '洪湖': 1.87, '湖贝': 0.62, '田贝': 2.14, '科学馆': 3.0, '笋岗': 1.96, '红岭': 1.86, '红岭北': 2.36, '红岭南': 2.11, '罗湖': 1.95, '翠竹': 1.07, '老街': 0.81, '通新岭': 2.71, '鹿丹村': 2.08, '黄贝岭': 1.45}</t>
-  </si>
-  <si>
-    <t>{'上梅林': 2.51, '下梅林': 1.37, '会展中心': 2.76, '侨香': 3.0, '农林': 2.97, '少年宫': 1.81, '岗厦北': 3.0, '市民中心': 2.25, '梅景': 1.01, '梅村': 1.91, '福田': 1.78, '莲花北': 1.83, '莲花村': 2.57, '莲花西': 1.02, '购物公园': 2.38, '车公庙': 2.62, '香梅': 0.97, '香梅北': 1.09, '香蜜': 2.0, '香蜜湖': 1.69}</t>
+    <t>{'仙湖路': 2.57, '向西村': 2.52, '怡景': 1.27, '文锦': 1.93, '晒布': 2.69, '湖贝': 2.43, '田贝': 2.9, '翠竹': 2.16, '莲塘口岸': 0.95, '黄贝岭': 1.29}</t>
+  </si>
+  <si>
+    <t>{'人民南': 1.59, '体育中心': 2.79, '向西村': 1.1, '园岭': 2.02, '国贸': 1.13, '大剧院': 1.74, '怡景': 1.94, '文锦': 1.15, '新秀': 2.69, '水贝': 2.76, '洪湖': 1.87, '湖贝': 0.62, '田贝': 2.14, '科学馆': 2.98, '笋岗': 1.96, '红岭': 1.86, '红岭北': 2.36, '红岭南': 2.11, '罗湖': 1.95, '翠竹': 1.07, '老街': 0.81, '通新岭': 2.71, '鹿丹村': 2.08, '黄贝岭': 1.45}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 2.51, '下梅林': 1.37, '会展中心': 2.76, '侨香': 3.0, '农林': 2.97, '冬瓜岭': 2.61, '少年宫': 1.81, '岗厦北': 2.98, '市民中心': 2.25, '梅景': 1.01, '梅村': 1.91, '福田': 1.78, '莲花北': 1.83, '莲花村': 2.57, '莲花西': 1.02, '购物公园': 2.38, '车公庙': 2.62, '香梅': 0.97, '香梅北': 1.09, '香蜜': 2.0, '香蜜湖': 1.69}</t>
+  </si>
+  <si>
+    <t>{'上李朗': 1.76, '凉帽山': 2.58, '华南城': 0.74, '平湖': 2.73, '甘坑': 2.94, '禾花': 1.86}</t>
   </si>
   <si>
     <t>{'下水径': 2.2, '丹竹头': 2.31, '大芬': 1.15, '布吉': 1.07, '布心': 3.0, '百鸽笼': 1.28, '草埔': 2.88, '长龙': 1.69}</t>
@@ -1174,10 +1495,16 @@
     <t>{'机场东': 2.55, '福永': 2.62}</t>
   </si>
   <si>
-    <t>{'上水径': 2.66, '五和': 1.98, '坂田': 0.94}</t>
-  </si>
-  <si>
-    <t>{'后亭': 2.21, '碧头': 1.67}</t>
+    <t>{'上水径': 2.66, '五和': 1.98, '光雅园': 2.27, '华为': 2.94, '南坑': 2.66, '坂田': 0.94, '坂田北': 1.93, '贝尔路': 2.17}</t>
+  </si>
+  <si>
+    <t>{'牛湖': 2.54, '观澜': 1.2, '观澜湖': 1.17, '长湖': 2.33}</t>
+  </si>
+  <si>
+    <t>{'后亭': 2.2, '松岗公园': 2.02, '溪头': 0.86, '碧头': 1.68}</t>
+  </si>
+  <si>
+    <t>{'松岗': 2.02, '溪头': 1.15, '碧头': 3.0, '薯田埔': 2.02}</t>
   </si>
   <si>
     <t>{'临海': 1.58, '前海湾': 0.53, '前湾': 1.14, '前湾公园': 2.0, '南山': 2.79, '大新': 1.76, '妈湾': 2.99, '宝华': 2.33, '宝安中心': 2.7, '怡海': 2.03, '新安': 1.71, '桃园': 2.76, '梦海': 1.5, '荔林': 2.76, '鲤鱼门': 0.53}</t>
@@ -1195,19 +1522,28 @@
     <t>{'上梅林': 2.44, '下梅林': 0.65, '侨香': 2.72, '少年宫': 2.67, '景田': 1.01, '梅村': 1.7, '福田': 2.79, '莲花北': 2.21, '莲花西': 2.02, '香梅': 1.75, '香梅北': 0.96, '香蜜': 1.71, '香蜜湖': 2.46}</t>
   </si>
   <si>
-    <t>{'上梅林': 0.75, '下梅林': 1.14, '孖岭': 1.58, '少年宫': 2.34, '景田': 1.91, '梅景': 1.7, '民乐': 2.88, '莲花北': 1.13, '莲花村': 2.71, '莲花西': 2.43, '香梅': 2.88, '香梅北': 2.59}</t>
+    <t>{'上梅林': 0.75, '下梅林': 1.14, '冬瓜岭': 1.79, '孖岭': 1.58, '少年宫': 2.34, '景田': 1.91, '梅景': 1.7, '梅林关': 2.9, '民乐': 2.88, '翰岭': 1.81, '莲花北': 1.13, '莲花村': 2.71, '莲花西': 2.43, '香梅': 2.88, '香梅北': 2.59}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 2.75, '光雅园': 2.56, '南坑': 1.97, '梅村': 2.9, '民乐': 0.45, '民治': 2.86, '深圳北站': 2.95, '白石龙': 1.35, '翰岭': 2.78, '雅宝': 1.33}</t>
   </si>
   <si>
     <t>{'临海': 2.97, '前海湾': 2.03, '前湾': 0.49, '前湾公园': 1.0, '南山': 2.61, '南油': 2.93, '南油西': 2.29, '大新': 2.23, '妈湾': 1.8, '怡海': 0.68, '桂湾': 1.5, '荔林': 1.67, '荔湾': 2.41, '铁路公园': 2.0, '鲤鱼门': 1.52}</t>
   </si>
   <si>
+    <t>{'仙湖路': 1.86, '莲塘': 1.15, '莲塘口岸': 2.88}</t>
+  </si>
+  <si>
+    <t>{'光明': 2.26, '光明大街': 2.51, '科学公园': 1.11, '红花山': 1.66}</t>
+  </si>
+  <si>
     <t>{'塘坑': 1.96, '永湖': 1.5}</t>
   </si>
   <si>
-    <t>{'上梅林': 2.85, '梅村': 2.88, '民治': 2.73, '深圳北站': 2.63, '白石龙': 1.05}</t>
-  </si>
-  <si>
-    <t>{'五和': 2.28, '民乐': 2.73, '深圳北站': 1.34, '白石龙': 1.79, '红山': 1.85}</t>
+    <t>{'上梅林': 2.85, '光雅园': 2.77, '南坑': 2.22, '梅村': 2.88, '梅林关': 0.45, '民治': 2.73, '深圳北站': 2.63, '白石龙': 1.05, '雅宝': 1.65}</t>
+  </si>
+  <si>
+    <t>{'五和': 2.28, '光雅园': 2.06, '南坑': 2.15, '梅林关': 2.86, '民乐': 2.73, '深圳北站': 1.34, '白石龙': 1.79, '红山': 1.85, '雅宝': 2.47}</t>
   </si>
   <si>
     <t>{'东角头': 1.2, '南油': 2.48, '南油西': 2.3, '海上世界': 0.6, '海月': 2.28, '湾厦': 2.02, '登良': 2.95, '荔林': 2.7, '荔湾': 2.89, '蛇口港': 1.51, '赤湾': 2.49}</t>
@@ -1222,33 +1558,42 @@
     <t>{'后亭': 2.43, '马安山': 1.72}</t>
   </si>
   <si>
-    <t>{'上沙': 0.84, '下沙': 2.08, '会展中心': 2.46, '皇岗村': 1.79, '益田': 1.0, '石厦': 1.18, '福民': 2.41, '福田': 2.39, '福田口岸': 2.8, '莲花西': 2.98, '购物公园': 1.97, '车公庙': 2.43, '香梅': 2.75, '香蜜湖': 2.05}</t>
-  </si>
-  <si>
-    <t>{'八卦岭': 0.7, '华强北': 2.89, '华新': 2.38, '园岭': 1.46, '水贝': 2.89, '洪湖': 2.56, '燕南': 2.64, '笋岗': 1.49, '红岭': 2.27, '红岭北': 0.94, '草埔': 2.68, '通新岭': 2.08, '银湖': 0.81, '黄木岗': 1.7}</t>
+    <t>{'海山': 1.5, '盐田港西': 2.6}</t>
+  </si>
+  <si>
+    <t>{'上沙': 0.84, '下沙': 2.08, '会展中心': 2.46, '皇岗村': 1.79, '益田': 1.0, '石厦': 1.18, '福保': 1.96, '福民': 2.41, '福田': 2.39, '福田口岸': 2.58, '莲花西': 2.98, '购物公园': 1.97, '车公庙': 2.43, '香梅': 2.75, '香蜜湖': 2.05}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 1.47, '八卦岭': 0.72, '华强北': 2.89, '华新': 2.38, '园岭': 1.46, '水贝': 2.89, '洪湖': 2.56, '燕南': 2.64, '笋岗': 1.49, '红岭': 2.27, '红岭北': 0.94, '草埔': 2.68, '通新岭': 2.08, '银湖': 0.8, '黄木岗': 1.7}</t>
   </si>
   <si>
     <t>{'兴东': 1.18, '灵芝': 0.91, '翻身': 2.43}</t>
   </si>
   <si>
-    <t>{'八卦岭': 2.85, '向西村': 2.94, '园岭': 2.14, '国贸': 2.96, '太安': 1.72, '布心': 2.31, '怡景': 2.14, '文锦': 2.79, '晒布': 1.87, '水贝': 0.92, '泥岗': 2.56, '湖贝': 2.44, '田贝': 0.79, '笋岗': 1.18, '红岭': 2.69, '红岭北': 1.92, '翠竹': 1.34, '老街': 2.49, '草埔': 2.13, '黄贝岭': 2.64}</t>
+    <t>{'体育中心': 2.99, '八卦岭': 2.89, '向西村': 2.94, '园岭': 2.14, '国贸': 2.96, '太安': 1.72, '布心': 2.31, '怡景': 2.14, '文锦': 2.79, '晒布': 1.87, '水贝': 0.92, '泥岗': 2.56, '湖贝': 2.44, '田贝': 0.79, '笋岗': 1.18, '红岭': 2.69, '红岭北': 1.92, '翠竹': 1.34, '老街': 2.49, '草埔': 2.13, '黄贝岭': 2.64}</t>
   </si>
   <si>
     <t>{'东角头': 1.65, '南油': 2.97, '南油西': 2.69, '水湾': 0.6, '海月': 2.88, '湾厦': 2.58, '荔林': 2.99, '荔湾': 2.63, '蛇口港': 0.98, '赤湾': 1.92}</t>
   </si>
   <si>
+    <t>{'沙头角': 1.5, '盐田港西': 1.22}</t>
+  </si>
+  <si>
     <t>{'东角头': 1.71, '南山': 3.0, '南山书城': 2.3, '南油': 1.63, '南油西': 2.21, '后海': 2.06, '水湾': 2.28, '海上世界': 2.88, '深大南': 2.86, '湾厦': 0.79, '登良': 0.97, '荔林': 2.83}</t>
   </si>
   <si>
     <t>{'世界之窗': 2.96, '侨城东': 2.7, '侨城北': 1.47, '侨香': 2.25, '华侨城': 2.7, '安托山': 1.55, '桃源村': 1.26, '深康': 1.24, '龙井': 2.12}</t>
   </si>
   <si>
-    <t>{'民乐': 2.63, '民治': 1.34, '白石龙': 1.6, '红山': 1.45, '长岭陂': 2.4}</t>
+    <t>{'梅林关': 2.95, '民乐': 2.63, '民治': 1.34, '白石龙': 1.6, '红山': 1.45, '长岭陂': 2.4}</t>
   </si>
   <si>
     <t>{'世界之窗': 2.58, '侨城东': 1.26, '侨城北': 2.52, '华侨城': 1.54, '深康': 2.83, '深湾': 1.5, '竹子林': 2.51, '红树湾': 2.57, '红树湾南': 2.23}</t>
   </si>
   <si>
+    <t>{'盐田港西': 2.4, '盐田路': 1.36}</t>
+  </si>
+  <si>
     <t>{'南山': 2.67, '南山书城': 2.67, '后海': 2.26, '桃园': 2.1, '深大南': 1.66, '白石洲': 2.35, '科苑': 1.31, '粤海门': 0.68, '红树湾': 2.91, '高新南': 0.89, '高新园': 1.01}</t>
   </si>
   <si>
@@ -1261,7 +1606,10 @@
     <t>{'世界之窗': 1.6, '侨城东': 2.12, '侨城北': 2.56, '华侨城': 1.35, '深圳湾公园': 1.5, '白石洲': 2.19, '红树湾': 1.07, '红树湾南': 0.74}</t>
   </si>
   <si>
-    <t>{'龙华': 2.0}</t>
+    <t>{'清湖北': 0.97, '竹村': 2.55, '龙华': 2.0}</t>
+  </si>
+  <si>
+    <t>{'清湖': 0.97, '竹村': 1.63, '茜坑': 2.8, '龙华': 2.93}</t>
   </si>
   <si>
     <t>{'人民南': 1.23, '向西村': 0.5, '园岭': 2.53, '国贸': 0.84, '大剧院': 1.83, '怡景': 1.98, '文锦': 0.61, '新秀': 2.43, '晒布': 0.62, '洪湖': 2.44, '田贝': 2.6, '笋岗': 2.57, '红岭': 2.19, '红岭北': 2.93, '红岭南': 2.18, '罗湖': 1.52, '翠竹': 1.4, '老街': 0.87, '鹿丹村': 1.97, '黄贝岭': 1.14}</t>
@@ -1270,18 +1618,27 @@
     <t>{'东角头': 1.09, '南油': 2.28, '南油西': 2.71, '后海': 2.82, '水湾': 2.02, '海上世界': 2.58, '海月': 0.79, '登良': 1.76}</t>
   </si>
   <si>
+    <t>{'后亭': 2.69, '松岗': 0.86, '松岗公园': 1.15, '碧头': 2.12}</t>
+  </si>
+  <si>
     <t>{'兴东': 2.09, '宝体': 2.58, '宝华': 2.91, '宝安': 2.92, '宝安中心': 2.36, '新安': 2.58, '洪浪北': 0.91, '翻身': 1.52}</t>
   </si>
   <si>
-    <t>{'人民南': 2.81, '八卦岭': 1.95, '华强北': 0.73, '华强南': 1.01, '华强路': 0.89, '华新': 0.78, '园岭': 1.79, '国贸': 2.76, '大剧院': 1.6, '岗厦': 2.72, '岗厦北': 2.43, '泥岗': 2.64, '科学馆': 0.5, '笋岗': 2.85, '红岭': 1.31, '红岭北': 2.29, '红岭南': 1.35, '老街': 2.5, '莲花村': 2.58, '赤尾': 1.73, '通新岭': 0.64, '银湖': 2.66, '鹿丹村': 1.92, '黄木岗': 1.37}</t>
+    <t>{'人民南': 2.81, '体育中心': 1.18, '八卦岭': 1.95, '华强北': 0.73, '华强南': 1.01, '华强路': 0.89, '华新': 0.78, '园岭': 1.79, '国贸': 2.76, '大剧院': 1.6, '岗厦': 2.72, '岗厦北': 2.46, '泥岗': 2.64, '科学馆': 0.51, '笋岗': 2.85, '红岭': 1.31, '红岭北': 2.29, '红岭南': 1.35, '老街': 2.5, '莲花村': 2.58, '赤尾': 1.73, '通新岭': 0.64, '银湖': 2.66, '鹿丹村': 1.92, '黄木岗': 1.37}</t>
   </si>
   <si>
     <t>{'吉祥': 1.68, '大运': 1.46, '荷坳': 2.91, '龙城广场': 2.99}</t>
   </si>
   <si>
+    <t>{'松元厦': 2.54, '观澜湖': 1.37}</t>
+  </si>
+  <si>
     <t>{'大学城': 1.6, '桃源村': 2.39, '留仙洞': 2.22, '茶光': 0.92, '西丽': 1.52, '西丽湖': 2.86, '龙井': 1.53}</t>
   </si>
   <si>
+    <t>{'上李朗': 2.29, '上水径': 2.87, '凉帽山': 1.36, '木古': 2.94, '雪象': 2.94}</t>
+  </si>
+  <si>
     <t>{'园岭': 2.89, '太安': 1.0, '布心': 1.73, '怡景': 1.64, '文锦': 2.78, '新秀': 2.9, '晒布': 2.14, '水贝': 0.91, '洪湖': 0.79, '湖贝': 2.6, '笋岗': 1.97, '红岭北': 2.71, '翠竹': 1.23, '老街': 2.9, '草埔': 2.36, '黄贝岭': 2.44}</t>
   </si>
   <si>
@@ -1294,43 +1651,58 @@
     <t>{'世界之窗': 0.8, '侨城北': 2.32, '华侨城': 2.0, '桃源村': 2.73, '深大': 2.35, '深湾': 2.19, '科苑': 2.56, '粤海门': 2.34, '红树湾': 1.61, '红树湾南': 1.9, '高新南': 1.9, '高新园': 1.36, '龙井': 2.82}</t>
   </si>
   <si>
-    <t>{'民乐': 1.05, '民治': 1.79, '深圳北站': 1.6, '红山': 2.99}</t>
+    <t>{'光雅园': 2.52, '南坑': 2.13, '梅林关': 1.35, '民乐': 1.05, '民治': 1.79, '深圳北站': 1.6, '红山': 2.99, '雅宝': 1.87}</t>
   </si>
   <si>
     <t>{'下水径': 2.96, '大芬': 2.24, '太安': 2.54, '布吉': 1.15, '布心': 1.79, '木棉湾': 1.28, '水贝': 2.45, '草埔': 1.88, '长龙': 2.2}</t>
   </si>
   <si>
-    <t>{'会展中心': 1.96, '华强北': 2.78, '华强南': 2.16, '华强路': 2.37, '岗厦': 1.57, '岗厦北': 2.18, '市民中心': 2.58, '皇岗村': 1.46, '益田': 2.44, '石厦': 2.1, '福民': 0.84, '福田': 2.97, '福田口岸': 0.83, '科学馆': 3.0, '购物公园': 2.45, '赤尾': 1.45}</t>
-  </si>
-  <si>
-    <t>{'上沙': 2.5, '会展中心': 1.3, '少年宫': 2.83, '岗厦': 1.56, '岗厦北': 2.2, '市民中心': 2.07, '沙尾': 1.79, '皇岗口岸': 1.46, '益田': 1.18, '石厦': 0.64, '福民': 0.63, '福田': 2.02, '福田口岸': 1.27, '莲花村': 2.95, '莲花西': 2.8, '购物公园': 1.39, '赤尾': 2.61, '香蜜湖': 2.79}</t>
-  </si>
-  <si>
-    <t>{'上沙': 1.84, '会展中心': 2.3, '岗厦': 2.72, '沙尾': 1.0, '皇岗口岸': 2.44, '皇岗村': 1.18, '石厦': 0.87, '福民': 1.72, '福田': 2.65, '福田口岸': 1.88, '购物公园': 2.08, '香蜜湖': 2.81}</t>
-  </si>
-  <si>
-    <t>{'上沙': 1.86, '会展中心': 1.45, '少年宫': 2.85, '岗厦': 1.94, '岗厦北': 2.5, '市民中心': 2.15, '沙尾': 1.18, '皇岗口岸': 2.1, '皇岗村': 0.64, '益田': 0.87, '福民': 1.26, '福田': 1.82, '福田口岸': 1.84, '莲花西': 2.58, '购物公园': 1.22, '香梅': 2.8, '香蜜湖': 2.28}</t>
-  </si>
-  <si>
-    <t>{'松岗': 1.67}</t>
+    <t>{'会展中心': 1.96, '华强北': 2.78, '华强南': 2.16, '华强路': 2.37, '岗厦': 1.57, '岗厦北': 2.18, '市民中心': 2.58, '皇岗村': 1.46, '益田': 2.44, '石厦': 2.1, '福保': 2.44, '福民': 0.84, '福田': 2.97, '福田口岸': 0.87, '购物公园': 2.45, '赤尾': 1.45}</t>
+  </si>
+  <si>
+    <t>{'上沙': 2.5, '会展中心': 1.3, '少年宫': 2.83, '岗厦': 1.56, '岗厦北': 2.18, '市民中心': 2.07, '沙尾': 1.79, '皇岗口岸': 1.46, '益田': 1.18, '石厦': 0.64, '福保': 1.75, '福民': 0.63, '福田': 2.02, '福田口岸': 1.04, '莲花村': 2.95, '莲花西': 2.8, '购物公园': 1.39, '赤尾': 2.61, '香蜜湖': 2.79}</t>
+  </si>
+  <si>
+    <t>{'上沙': 1.84, '会展中心': 2.3, '岗厦': 2.72, '沙尾': 1.0, '皇岗口岸': 2.44, '皇岗村': 1.18, '石厦': 0.87, '福保': 1.05, '福民': 1.72, '福田': 2.65, '福田口岸': 1.68, '购物公园': 2.08, '香蜜湖': 2.81}</t>
+  </si>
+  <si>
+    <t>{'沙头角': 2.6, '海山': 1.22, '深外高中': 2.4}</t>
+  </si>
+  <si>
+    <t>{'深外高中': 1.36}</t>
+  </si>
+  <si>
+    <t>{'上沙': 1.86, '会展中心': 1.45, '少年宫': 2.85, '岗厦': 1.94, '岗厦北': 2.48, '市民中心': 2.15, '沙尾': 1.18, '皇岗口岸': 2.1, '皇岗村': 0.64, '益田': 0.87, '福保': 1.77, '福民': 1.26, '福田': 1.82, '福田口岸': 1.6, '莲花西': 2.58, '购物公园': 1.22, '香梅': 2.8, '香蜜湖': 2.28}</t>
+  </si>
+  <si>
+    <t>{'松岗': 1.68, '松岗公园': 3.0, '溪头': 2.12}</t>
   </si>
   <si>
     <t>{'坪洲': 1.65, '宝体': 2.98, '西乡': 0.71}</t>
   </si>
   <si>
-    <t>{'会展中心': 1.38, '华强南': 2.65, '华强路': 2.75, '少年宫': 2.89, '岗厦': 1.31, '岗厦北': 2.0, '市民中心': 2.12, '沙尾': 2.41, '皇岗口岸': 0.84, '皇岗村': 0.63, '益田': 1.72, '石厦': 1.26, '福田': 2.3, '福田口岸': 0.9, '莲花村': 2.83, '购物公园': 1.72, '赤尾': 2.03}</t>
+    <t>{'上沙': 2.78, '沙尾': 1.96, '皇岗口岸': 2.44, '皇岗村': 1.75, '益田': 1.05, '石厦': 1.77, '福民': 2.01, '福田口岸': 1.57, '购物公园': 2.98}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 1.38, '华强南': 2.65, '华强路': 2.75, '少年宫': 2.89, '岗厦': 1.31, '岗厦北': 1.99, '市民中心': 2.12, '沙尾': 2.41, '皇岗口岸': 0.84, '皇岗村': 0.63, '益田': 1.72, '石厦': 1.26, '福保': 2.01, '福田': 2.3, '福田口岸': 0.72, '莲花村': 2.83, '购物公园': 1.72, '赤尾': 2.03}</t>
   </si>
   <si>
     <t>{'机场北': 2.62, '桥头': 1.7}</t>
   </si>
   <si>
-    <t>{'上沙': 2.48, '会展中心': 1.03, '少年宫': 1.21, '岗厦': 1.68, '岗厦北': 1.68, '市民中心': 0.87, '景田': 1.78, '梅景': 2.79, '沙尾': 2.39, '皇岗口岸': 2.97, '皇岗村': 2.02, '益田': 2.65, '石厦': 1.82, '福民': 2.3, '莲花北': 2.37, '莲花村': 1.81, '莲花西': 0.79, '购物公园': 0.63, '车公庙': 2.81, '香梅': 1.48, '香梅北': 2.58, '香蜜湖': 1.47}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 2.28, '华强南': 2.99, '岗厦': 2.13, '岗厦北': 2.8, '沙尾': 2.8, '皇岗口岸': 0.83, '皇岗村': 1.27, '益田': 1.88, '石厦': 1.84, '福民': 0.9, '购物公园': 2.59, '赤尾': 2.28}</t>
-  </si>
-  <si>
-    <t>{'人民南': 2.45, '八卦岭': 2.37, '华强北': 1.07, '华强南': 0.92, '华强路': 1.01, '华新': 1.26, '园岭': 2.0, '国贸': 2.46, '大剧院': 1.33, '岗厦': 2.82, '岗厦北': 2.64, '晒布': 3.0, '燕南': 0.5, '皇岗口岸': 3.0, '红岭': 1.31, '红岭北': 2.57, '红岭南': 1.01, '罗湖': 2.61, '老街': 2.29, '莲花村': 2.92, '赤尾': 1.55, '通新岭': 0.96, '鹿丹村': 1.51, '黄木岗': 1.87}</t>
+    <t>{'上沙': 2.48, '会展中心': 1.03, '冬瓜岭': 2.72, '少年宫': 1.21, '岗厦': 1.68, '岗厦北': 1.66, '市民中心': 0.87, '景田': 1.78, '梅景': 2.79, '沙尾': 2.39, '皇岗口岸': 2.97, '皇岗村': 2.02, '益田': 2.65, '石厦': 1.82, '福民': 2.3, '福田口岸': 2.98, '莲花北': 2.37, '莲花村': 1.81, '莲花西': 0.79, '购物公园': 0.63, '车公庙': 2.81, '香梅': 1.48, '香梅北': 2.58, '香蜜湖': 1.47}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 2.09, '岗厦': 2.0, '岗厦北': 2.67, '市民中心': 2.83, '沙尾': 2.58, '皇岗口岸': 0.87, '皇岗村': 1.04, '益田': 1.68, '石厦': 1.6, '福保': 1.57, '福民': 0.72, '福田': 2.98, '购物公园': 2.37, '赤尾': 2.32}</t>
+  </si>
+  <si>
+    <t>{'华南城': 1.12, '双拥街': 1.86, '平湖': 0.98, '木古': 1.86}</t>
+  </si>
+  <si>
+    <t>{'光明': 1.26, '光明大街': 1.94, '楼村': 1.11, '红花山': 2.75}</t>
+  </si>
+  <si>
+    <t>{'人民南': 2.43, '体育中心': 1.57, '八卦岭': 2.37, '华强北': 1.09, '华强南': 0.94, '华强路': 1.03, '华新': 1.28, '园岭': 1.99, '国贸': 2.44, '大剧院': 1.3, '岗厦': 2.84, '岗厦北': 2.69, '晒布': 2.98, '燕南': 0.51, '红岭': 1.3, '红岭北': 2.56, '红岭南': 0.99, '罗湖': 2.59, '老街': 2.27, '莲花村': 2.95, '赤尾': 1.57, '通新岭': 0.95, '鹿丹村': 1.49, '黄木岗': 1.88}</t>
   </si>
   <si>
     <t>{'南山': 2.34, '南山书城': 1.99, '南油': 2.83, '后海': 1.03, '桃园': 2.27, '深大': 1.31, '深大南': 1.09, '登良': 2.17, '白石洲': 2.56, '粤海门': 0.63, '红树湾': 2.29, '红树湾南': 2.63, '高新南': 0.76, '高新园': 1.67}</t>
@@ -1339,22 +1711,25 @@
     <t>{'上沙': 2.42, '下沙': 1.18, '侨城东': 1.78, '侨城北': 2.81, '侨香': 1.83, '农林': 0.9, '华侨城': 2.93, '安托山': 1.89, '深圳湾公园': 2.51, '深康': 2.13, '车公庙': 1.27, '香梅': 2.96, '香梅北': 2.99, '香蜜': 2.39, '香蜜湖': 2.61}</t>
   </si>
   <si>
-    <t>{'八卦岭': 1.67, '华新': 3.0, '园岭': 1.06, '国贸': 2.75, '大剧院': 2.43, '太安': 2.88, '晒布': 1.96, '水贝': 1.83, '泥岗': 1.49, '洪湖': 1.18, '湖贝': 2.57, '燕南': 2.85, '田贝': 1.97, '红岭': 1.81, '红岭北': 0.73, '红岭南': 2.69, '翠竹': 2.07, '老街': 2.21, '草埔': 2.4, '通新岭': 2.21, '银湖': 2.28, '黄木岗': 2.61}</t>
+    <t>{'清湖': 2.55, '清湖北': 1.63, '茜坑': 1.17, '长湖': 2.71}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 1.84, '八卦岭': 1.72, '华新': 3.0, '园岭': 1.06, '国贸': 2.75, '大剧院': 2.43, '太安': 2.88, '晒布': 1.96, '水贝': 1.83, '泥岗': 1.49, '洪湖': 1.18, '湖贝': 2.57, '燕南': 2.85, '田贝': 1.97, '红岭': 1.81, '红岭北': 0.73, '红岭南': 2.69, '翠竹': 2.07, '老街': 2.21, '草埔': 2.4, '通新岭': 2.21, '银湖': 2.27, '黄木岗': 2.61}</t>
   </si>
   <si>
     <t>{'世界之窗': 2.98, '南山': 2.45, '南山书城': 2.28, '后海': 1.62, '桃园': 2.12, '深大': 0.68, '深大南': 1.26, '登良': 2.74, '白石洲': 2.34, '科苑': 0.63, '红树湾': 2.5, '红树湾南': 2.87, '高新南': 0.47, '高新园': 1.2}</t>
   </si>
   <si>
-    <t>{'上塘': 2.02, '民治': 1.85, '深圳北站': 1.45, '白石龙': 2.99, '长岭陂': 2.84, '龙胜': 2.8}</t>
-  </si>
-  <si>
-    <t>{'人民南': 2.0, '八卦岭': 1.8, '华强北': 2.02, '华强南': 2.21, '华强路': 2.18, '华新': 1.84, '向西村': 2.38, '园岭': 0.88, '国贸': 1.76, '大剧院': 0.8, '文锦': 2.79, '晒布': 1.86, '泥岗': 2.27, '洪湖': 2.69, '湖贝': 2.19, '燕南': 1.31, '科学馆': 1.31, '笋岗': 1.81, '红岭北': 1.52, '红岭南': 0.94, '罗湖': 2.32, '翠竹': 2.74, '老街': 1.35, '赤尾': 2.87, '通新岭': 0.86, '银湖': 2.69, '鹿丹村': 1.47, '黄木岗': 1.96}</t>
-  </si>
-  <si>
-    <t>{'八卦岭': 0.95, '华强北': 2.76, '华新': 2.32, '园岭': 0.64, '国贸': 2.9, '大剧院': 2.28, '晒布': 2.36, '水贝': 2.5, '泥岗': 0.94, '洪湖': 1.92, '湖贝': 2.93, '燕南': 2.29, '田贝': 2.71, '科学馆': 2.57, '笋岗': 0.73, '红岭': 1.52, '红岭南': 2.46, '翠竹': 2.7, '老街': 2.37, '草埔': 2.79, '通新岭': 1.66, '银湖': 1.65, '鹿丹村': 2.96, '黄木岗': 1.88}</t>
-  </si>
-  <si>
-    <t>{'人民南': 1.46, '八卦岭': 2.64, '华强北': 2.05, '华强南': 1.87, '华强路': 2.02, '华新': 2.11, '向西村': 2.16, '园岭': 1.82, '国贸': 1.45, '大剧院': 0.38, '文锦': 2.7, '晒布': 2.11, '湖贝': 2.18, '燕南': 1.35, '科学馆': 1.01, '笋岗': 2.69, '红岭': 0.94, '红岭北': 2.46, '罗湖': 1.68, '老街': 1.34, '赤尾': 2.37, '通新岭': 1.34, '鹿丹村': 0.62, '黄木岗': 2.52}</t>
+    <t>{'上塘': 2.02, '上芬': 2.17, '民治': 1.85, '深圳北站': 1.45, '白石龙': 2.99, '长岭陂': 2.84, '龙胜': 2.8}</t>
+  </si>
+  <si>
+    <t>{'人民南': 2.0, '体育中心': 1.12, '八卦岭': 1.82, '华强北': 2.02, '华强南': 2.21, '华强路': 2.18, '华新': 1.84, '向西村': 2.38, '园岭': 0.88, '国贸': 1.76, '大剧院': 0.8, '文锦': 2.79, '晒布': 1.86, '泥岗': 2.27, '洪湖': 2.69, '湖贝': 2.19, '燕南': 1.31, '科学馆': 1.3, '笋岗': 1.81, '红岭北': 1.52, '红岭南': 0.94, '罗湖': 2.32, '翠竹': 2.74, '老街': 1.35, '赤尾': 2.87, '通新岭': 0.86, '银湖': 2.68, '鹿丹村': 1.47, '黄木岗': 1.96}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 1.17, '八卦岭': 0.99, '华强北': 2.76, '华新': 2.32, '园岭': 0.64, '国贸': 2.9, '大剧院': 2.28, '晒布': 2.36, '水贝': 2.5, '泥岗': 0.94, '洪湖': 1.92, '湖贝': 2.93, '燕南': 2.29, '田贝': 2.71, '科学馆': 2.56, '笋岗': 0.73, '红岭': 1.52, '红岭南': 2.46, '翠竹': 2.7, '老街': 2.37, '草埔': 2.79, '通新岭': 1.66, '银湖': 1.64, '鹿丹村': 2.96, '黄木岗': 1.88}</t>
+  </si>
+  <si>
+    <t>{'人民南': 1.46, '体育中心': 1.86, '八卦岭': 2.66, '华强北': 2.05, '华强南': 1.87, '华强路': 2.02, '华新': 2.11, '向西村': 2.16, '园岭': 1.82, '国贸': 1.45, '大剧院': 0.38, '文锦': 2.7, '晒布': 2.11, '湖贝': 2.18, '燕南': 1.35, '科学馆': 0.99, '笋岗': 2.69, '红岭': 0.94, '红岭北': 2.46, '罗湖': 1.68, '老街': 1.34, '赤尾': 2.37, '通新岭': 1.34, '鹿丹村': 0.62, '黄木岗': 2.52}</t>
   </si>
   <si>
     <t>{'世界之窗': 1.44, '侨城北': 2.99, '华侨城': 1.97, '后海': 2.77, '深圳湾公园': 2.57, '深大': 2.91, '深湾': 1.07, '白石洲': 1.61, '科苑': 2.29, '粤海门': 2.5, '红树湾南': 0.39, '高新南': 2.07, '高新园': 2.25}</t>
@@ -1363,16 +1738,25 @@
     <t>{'世界之窗': 1.57, '侨城东': 2.79, '侨城北': 2.96, '华侨城': 1.84, '深圳湾公园': 2.23, '深湾': 0.74, '白石洲': 1.9, '科苑': 2.63, '粤海门': 2.87, '红树湾': 0.39, '高新南': 2.45, '高新园': 2.63}</t>
   </si>
   <si>
-    <t>{'人民南': 0.39, '向西村': 1.13, '国贸': 0.85, '大剧院': 1.55, '文锦': 1.7, '晒布': 1.95, '湖贝': 1.52, '科学馆': 2.61, '红岭': 2.32, '红岭南': 1.68, '翠竹': 2.92, '老街': 1.36, '通新岭': 2.98, '鹿丹村': 1.11, '黄贝岭': 2.39}</t>
-  </si>
-  <si>
-    <t>{'人民南': 2.6, '向西村': 1.87, '园岭': 2.61, '国贸': 2.15, '大剧院': 2.77, '太安': 2.06, '布心': 2.88, '怡景': 1.05, '文锦': 1.55, '新秀': 2.16, '晒布': 1.07, '水贝': 2.04, '洪湖': 1.34, '湖贝': 1.4, '田贝': 1.23, '笋岗': 2.07, '红岭': 2.74, '红岭北': 2.7, '罗湖': 2.92, '老街': 1.88, '黄贝岭': 1.3}</t>
+    <t>{'公明广场': 1.63, '合水口': 2.74, '楼村': 1.66, '科学公园': 2.75}</t>
+  </si>
+  <si>
+    <t>{'人民南': 0.39, '向西村': 1.13, '国贸': 0.85, '大剧院': 1.55, '文锦': 1.7, '晒布': 1.95, '湖贝': 1.52, '科学馆': 2.59, '红岭': 2.32, '红岭南': 1.68, '翠竹': 2.92, '老街': 1.36, '通新岭': 2.98, '鹿丹村': 1.11, '黄贝岭': 2.39}</t>
+  </si>
+  <si>
+    <t>{'人民南': 2.6, '向西村': 1.87, '园岭': 2.61, '国贸': 2.15, '大剧院': 2.77, '太安': 2.06, '布心': 2.88, '怡景': 1.05, '文锦': 1.55, '新秀': 2.16, '晒布': 1.07, '水贝': 2.04, '洪湖': 1.34, '湖贝': 1.4, '田贝': 1.23, '笋岗': 2.07, '红岭': 2.74, '红岭北': 2.7, '罗湖': 2.92, '老街': 1.88, '莲塘口岸': 2.66, '黄贝岭': 1.3}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 1.06, '下梅林': 2.94, '八卦岭': 2.97, '冬瓜岭': 1.53, '孖岭': 0.65, '少年宫': 2.98, '梅村': 1.81, '梅林关': 2.78, '莲花北': 1.8, '莲花村': 2.84, '银湖': 2.25, '黄木岗': 2.78}</t>
   </si>
   <si>
     <t>{'临海': 1.77, '前海湾': 2.56, '坪洲': 2.53, '宝体': 1.3, '宝华': 1.4, '宝安': 1.43, '宝安中心': 0.84, '新安': 1.37, '洪浪北': 2.43, '灵芝': 1.52}</t>
   </si>
   <si>
-    <t>{'人民南': 0.98, '八卦岭': 2.99, '向西村': 1.03, '园岭': 1.85, '国贸': 0.55, '大剧院': 0.98, '怡景': 2.71, '文锦': 1.46, '晒布': 0.81, '洪湖': 2.49, '湖贝': 0.87, '燕南': 2.5, '田贝': 2.9, '科学馆': 2.29, '笋岗': 2.21, '红岭': 1.35, '红岭北': 2.37, '红岭南': 1.34, '罗湖': 1.36, '翠竹': 1.88, '通新岭': 2.19, '鹿丹村': 1.28, '黄贝岭': 2.0}</t>
+    <t>{'人民南': 0.98, '体育中心': 2.43, '向西村': 1.03, '园岭': 1.85, '国贸': 0.55, '大剧院': 0.98, '怡景': 2.71, '文锦': 1.46, '晒布': 0.81, '洪湖': 2.49, '湖贝': 0.87, '燕南': 2.5, '田贝': 2.9, '科学馆': 2.27, '笋岗': 2.21, '红岭': 1.35, '红岭北': 2.37, '红岭南': 1.34, '罗湖': 1.36, '翠竹': 1.88, '通新岭': 2.19, '鹿丹村': 1.28, '黄贝岭': 2.0}</t>
+  </si>
+  <si>
+    <t>{'清湖北': 2.8, '竹村': 1.17, '观澜': 2.44, '长湖': 1.55}</t>
   </si>
   <si>
     <t>{'大学城': 1.42, '珠光': 0.92, '留仙洞': 1.31, '西丽': 0.73, '西丽湖': 2.45, '龙井': 2.38}</t>
@@ -1390,13 +1774,22 @@
     <t>{'大运': 1.46, '永湖': 1.69, '爱联': 2.91}</t>
   </si>
   <si>
-    <t>{'上梅林': 1.1, '下梅林': 1.9, '会展中心': 2.87, '孖岭': 1.23, '少年宫': 1.33, '岗厦': 3.0, '岗厦北': 2.4, '市民中心': 2.1, '景田': 1.83, '梅景': 2.21, '梅村': 1.13, '福田': 2.37, '莲花村': 1.58, '莲花西': 1.82, '购物公园': 2.92, '香梅': 2.64, '香梅北': 2.84, '黄木岗': 2.91}</t>
-  </si>
-  <si>
-    <t>{'上梅林': 2.57, '会展中心': 1.69, '华强北': 1.87, '华强南': 2.33, '华强路': 2.0, '华新': 1.93, '孖岭': 2.2, '少年宫': 0.79, '岗厦': 1.53, '岗厦北': 0.87, '市民中心': 1.03, '景田': 2.57, '梅村': 2.71, '燕南': 2.58, '皇岗村': 2.95, '福民': 2.83, '福田': 1.81, '科学馆': 2.92, '莲花北': 1.58, '莲花西': 1.84, '购物公园': 2.07, '赤尾': 2.51, '通新岭': 2.92, '香梅': 2.91, '黄木岗': 2.15}</t>
-  </si>
-  <si>
-    <t>{'上梅林': 2.82, '上沙': 2.87, '下梅林': 2.28, '会展中心': 1.74, '少年宫': 1.06, '岗厦': 2.28, '岗厦北': 2.07, '市民中心': 1.27, '景田': 1.02, '梅景': 2.02, '梅村': 2.43, '沙尾': 2.98, '皇岗村': 2.8, '石厦': 2.58, '福田': 0.79, '莲花北': 1.82, '莲花村': 1.84, '购物公园': 1.42, '车公庙': 2.74, '香梅': 1.07, '香梅北': 1.95, '香蜜': 2.77, '香蜜湖': 1.46}</t>
+    <t>{'仙湖路': 0.81, '梧桐山南': 1.15, '莲塘口岸': 2.25}</t>
+  </si>
+  <si>
+    <t>{'仙湖路': 1.62, '太安': 2.92, '怡景': 1.61, '文锦': 2.82, '新秀': 0.95, '梧桐山南': 2.88, '翠竹': 2.66, '莲塘': 2.25, '黄贝岭': 2.14}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 1.1, '下梅林': 1.9, '会展中心': 2.87, '冬瓜岭': 0.84, '孖岭': 1.23, '少年宫': 1.33, '岗厦': 3.0, '岗厦北': 2.4, '市民中心': 2.1, '景田': 1.83, '梅景': 2.21, '梅村': 1.13, '福田': 2.37, '翰岭': 1.8, '莲花村': 1.58, '莲花西': 1.82, '购物公园': 2.92, '香梅': 2.64, '香梅北': 2.84, '黄木岗': 2.91}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 2.57, '会展中心': 1.69, '体育中心': 2.98, '冬瓜岭': 1.31, '华强北': 1.87, '华强南': 2.33, '华强路': 2.0, '华新': 1.93, '孖岭': 2.2, '少年宫': 0.79, '岗厦': 1.53, '岗厦北': 0.87, '市民中心': 1.03, '景田': 2.57, '梅村': 2.71, '燕南': 2.58, '皇岗村': 2.95, '福民': 2.83, '福田': 1.81, '科学馆': 2.95, '翰岭': 2.84, '莲花北': 1.58, '莲花西': 1.84, '购物公园': 2.07, '赤尾': 2.51, '通新岭': 2.92, '香梅': 2.91, '黄木岗': 2.15}</t>
+  </si>
+  <si>
+    <t>{'上梅林': 2.82, '上沙': 2.87, '下梅林': 2.28, '会展中心': 1.74, '冬瓜岭': 2.37, '少年宫': 1.06, '岗厦': 2.28, '岗厦北': 2.05, '市民中心': 1.27, '景田': 1.02, '梅景': 2.02, '梅村': 2.43, '沙尾': 2.98, '皇岗村': 2.8, '石厦': 2.58, '福田': 0.79, '莲花北': 1.82, '莲花村': 1.84, '购物公园': 1.42, '车公庙': 2.74, '香梅': 1.07, '香梅北': 1.95, '香蜜': 2.77, '香蜜湖': 1.46}</t>
+  </si>
+  <si>
+    <t>{'公明广场': 2.46, '合水口': 1.36, '松岗公园': 2.02}</t>
   </si>
   <si>
     <t>{'东角头': 2.21, '水湾': 1.51, '海上世界': 0.98, '赤湾': 1.55}</t>
@@ -1411,10 +1804,19 @@
     <t>{'坪洲': 1.05, '宝体': 2.41, '宝安': 2.9, '碧海湾': 0.71}</t>
   </si>
   <si>
-    <t>{'上沙': 2.26, '会展中心': 0.67, '少年宫': 1.66, '岗厦': 1.4, '岗厦北': 1.66, '市民中心': 1.04, '景田': 2.38, '沙尾': 1.97, '皇岗口岸': 2.45, '皇岗村': 1.39, '益田': 2.08, '石厦': 1.22, '福民': 1.72, '福田': 0.63, '福田口岸': 2.59, '莲花北': 2.92, '莲花村': 2.07, '莲花西': 1.42, '赤尾': 3.0, '车公庙': 2.96, '香梅': 1.94, '香蜜湖': 1.7}</t>
-  </si>
-  <si>
-    <t>{'会展中心': 2.34, '华强北': 1.46, '华强南': 0.73, '华强路': 1.02, '华新': 1.98, '大剧院': 2.74, '岗厦': 1.63, '岗厦北': 1.82, '市民中心': 2.57, '燕南': 1.73, '皇岗口岸': 1.45, '皇岗村': 2.61, '福民': 2.03, '福田口岸': 2.28, '科学馆': 1.55, '红岭': 2.87, '红岭南': 2.37, '莲花村': 2.51, '购物公园': 3.0, '通新岭': 2.36, '鹿丹村': 2.62, '黄木岗': 2.75}</t>
+    <t>{'松元厦': 1.2, '茜坑': 2.44, '观澜湖': 2.32, '长湖': 1.13}</t>
+  </si>
+  <si>
+    <t>{'松元厦': 1.17, '牛湖': 1.37, '观澜': 2.32}</t>
+  </si>
+  <si>
+    <t>{'五和': 1.76, '光雅园': 2.87, '华为': 0.97, '坂田': 1.65, '坂田北': 0.82, '岗头': 1.8, '杨美': 2.17, '雪象': 2.13}</t>
+  </si>
+  <si>
+    <t>{'上沙': 2.26, '会展中心': 0.67, '少年宫': 1.66, '岗厦': 1.4, '岗厦北': 1.63, '市民中心': 1.04, '景田': 2.38, '沙尾': 1.97, '皇岗口岸': 2.45, '皇岗村': 1.39, '益田': 2.08, '石厦': 1.22, '福保': 2.98, '福民': 1.72, '福田': 0.63, '福田口岸': 2.37, '莲花北': 2.92, '莲花村': 2.07, '莲花西': 1.42, '赤尾': 3.0, '车公庙': 2.96, '香梅': 1.94, '香蜜湖': 1.7}</t>
+  </si>
+  <si>
+    <t>{'会展中心': 2.34, '体育中心': 2.89, '华强北': 1.46, '华强南': 0.73, '华强路': 1.02, '华新': 1.98, '大剧院': 2.74, '岗厦': 1.63, '岗厦北': 1.83, '市民中心': 2.57, '燕南': 1.73, '皇岗口岸': 1.45, '皇岗村': 2.61, '福民': 2.03, '福田口岸': 2.32, '科学馆': 1.57, '红岭': 2.87, '红岭南': 2.37, '莲花村': 2.51, '购物公园': 3.0, '通新岭': 2.36, '鹿丹村': 2.62, '黄木岗': 2.75}</t>
   </si>
   <si>
     <t>{'水湾': 2.49, '海上世界': 1.92, '荔湾': 2.11, '蛇口港': 1.55, '铁路公园': 2.75}</t>
@@ -1423,21 +1825,36 @@
     <t>{'上沙': 1.63, '下沙': 0.83, '侨香': 1.91, '农林': 0.92, '安托山': 2.45, '景田': 2.62, '沙尾': 2.43, '深康': 2.99, '福田': 2.81, '竹子林': 1.27, '莲花西': 2.74, '购物公园': 2.96, '香梅': 1.75, '香梅北': 2.08, '香蜜': 1.85, '香蜜湖': 1.35}</t>
   </si>
   <si>
-    <t>{'人民南': 2.71, '八卦岭': 1.43, '华强北': 1.23, '华强南': 1.64, '华强路': 1.5, '华新': 0.99, '园岭': 1.16, '国贸': 2.55, '大剧院': 1.44, '岗厦北': 2.92, '晒布': 2.71, '泥岗': 2.08, '燕南': 0.64, '科学馆': 0.96, '笋岗': 2.21, '红岭': 0.86, '红岭北': 1.66, '红岭南': 1.34, '罗湖': 2.98, '老街': 2.19, '莲花村': 2.92, '赤尾': 2.36, '银湖': 2.24, '鹿丹村': 1.96, '黄木岗': 1.19}</t>
+    <t>{'人民南': 2.71, '体育中心': 0.62, '八卦岭': 1.43, '华强北': 1.23, '华强南': 1.64, '华强路': 1.5, '华新': 0.99, '园岭': 1.16, '国贸': 2.55, '大剧院': 1.44, '岗厦北': 2.95, '晒布': 2.71, '泥岗': 2.08, '燕南': 0.64, '科学馆': 0.95, '笋岗': 2.21, '红岭': 0.86, '红岭北': 1.66, '红岭南': 1.34, '罗湖': 2.98, '老街': 2.19, '莲花村': 2.92, '赤尾': 2.36, '银湖': 2.23, '鹿丹村': 1.96, '黄木岗': 1.19}</t>
   </si>
   <si>
     <t>{'前湾': 2.24, '前湾公园': 1.47, '南油西': 3.0, '妈湾': 0.69, '怡海': 1.95, '梦海': 2.0, '荔林': 2.58, '荔湾': 0.67, '赤湾': 2.75}</t>
   </si>
   <si>
-    <t>{'八卦岭': 0.9, '华强北': 2.7, '华新': 2.18, '园岭': 2.02, '孖岭': 2.26, '泥岗': 0.81, '燕南': 2.66, '笋岗': 2.28, '红岭': 2.69, '红岭北': 1.65, '通新岭': 2.24, '黄木岗': 1.41}</t>
+    <t>{'体育中心': 1.65, '八卦岭': 0.86, '冬瓜岭': 2.45, '华强北': 2.69, '华新': 2.17, '园岭': 2.01, '孖岭': 2.27, '泥岗': 0.8, '燕南': 2.66, '笋岗': 2.27, '红岭': 2.68, '红岭北': 1.64, '翰岭': 2.25, '通新岭': 2.23, '黄木岗': 1.41}</t>
+  </si>
+  <si>
+    <t>{'凤凰城': 2.35}</t>
   </si>
   <si>
     <t>{'塘朗': 1.5, '深圳北站': 2.4, '红山': 2.84}</t>
   </si>
   <si>
+    <t>{'松元厦': 2.33, '竹村': 2.71, '茜坑': 1.55, '观澜': 1.13}</t>
+  </si>
+  <si>
     <t>{'上水径': 1.78, '下水径': 0.82, '大芬': 2.61, '布吉': 1.06, '木棉湾': 1.69, '百鸽笼': 2.2, '草埔': 2.64}</t>
   </si>
   <si>
+    <t>{'元芬': 1.89}</t>
+  </si>
+  <si>
+    <t>{'五和': 2.48, '光雅园': 1.32, '南坑': 0.71, '坂田': 2.77, '梅林关': 1.33, '民乐': 1.65, '民治': 2.47, '白石龙': 1.87}</t>
+  </si>
+  <si>
+    <t>{'华为': 1.41, '坂田北': 2.92, '岗头': 0.73, '甘坑': 2.94, '贝尔路': 2.13}</t>
+  </si>
+  <si>
     <t>{'上沙': 2.35, '下梅林': 2.27, '下沙': 2.42, '会展中心': 2.49, '侨香': 2.64, '农林': 2.28, '少年宫': 2.14, '市民中心': 2.25, '景田': 0.97, '梅景': 1.75, '梅村': 2.88, '沙尾': 2.75, '石厦': 2.8, '福田': 1.48, '竹子林': 2.96, '莲花北': 2.64, '莲花村': 2.91, '莲花西': 1.07, '购物公园': 1.94, '车公庙': 1.75, '香梅北': 1.19, '香蜜': 1.82, '香蜜湖': 0.73}</t>
   </si>
   <si>
@@ -1462,25 +1879,25 @@
     <t>{'临海': 1.96, '前海湾': 0.78, '前湾': 1.31, '前湾公园': 2.25, '南山': 2.29, '南山书城': 2.98, '南油西': 3.0, '大新': 1.23, '宝华': 2.69, '宝安中心': 2.99, '怡海': 1.9, '新安': 1.93, '桂湾': 0.53, '桃园': 2.24, '梦海': 1.52, '荔林': 2.46}</t>
   </si>
   <si>
-    <t>{'人民南': 0.98, '华强北': 2.57, '华强南': 2.25, '华强路': 2.47, '华新': 2.7, '向西村': 1.82, '园岭': 2.33, '国贸': 1.14, '大剧院': 0.68, '文锦': 2.41, '晒布': 2.08, '湖贝': 1.97, '燕南': 1.92, '科学馆': 1.51, '红岭': 1.47, '红岭北': 2.96, '红岭南': 0.62, '罗湖': 1.11, '老街': 1.28, '赤尾': 2.62, '通新岭': 1.96}</t>
-  </si>
-  <si>
-    <t>{'八卦岭': 1.05, '华强北': 1.28, '华强南': 2.07, '华强路': 1.72, '华新': 0.77, '园岭': 1.77, '大剧院': 2.62, '孖岭': 2.44, '少年宫': 2.9, '岗厦北': 2.49, '泥岗': 1.7, '燕南': 1.37, '科学馆': 1.87, '笋岗': 2.61, '红岭': 1.96, '红岭北': 1.88, '红岭南': 2.52, '莲花北': 2.91, '莲花村': 2.15, '赤尾': 2.75, '通新岭': 1.19, '银湖': 1.41}</t>
-  </si>
-  <si>
-    <t>{'人民南': 2.21, '向西村': 1.29, '国贸': 1.93, '大剧院': 2.97, '怡景': 1.15, '文锦': 0.7, '新秀': 1.29, '晒布': 1.45, '洪湖': 2.64, '湖贝': 1.14, '田贝': 2.44, '罗湖': 2.39, '翠竹': 1.3, '老街': 2.0}</t>
+    <t>{'人民南': 0.98, '体育中心': 2.47, '华强北': 2.57, '华强南': 2.25, '华强路': 2.47, '华新': 2.7, '向西村': 1.82, '园岭': 2.33, '国贸': 1.14, '大剧院': 0.68, '文锦': 2.41, '晒布': 2.08, '湖贝': 1.97, '燕南': 1.92, '科学馆': 1.49, '红岭': 1.47, '红岭北': 2.96, '红岭南': 0.62, '罗湖': 1.11, '老街': 1.28, '赤尾': 2.62, '通新岭': 1.96}</t>
+  </si>
+  <si>
+    <t>{'体育中心': 0.92, '八卦岭': 1.02, '冬瓜岭': 2.09, '华强北': 1.28, '华强南': 2.07, '华强路': 1.72, '华新': 0.77, '园岭': 1.77, '大剧院': 2.62, '孖岭': 2.44, '少年宫': 2.9, '岗厦北': 2.51, '泥岗': 1.7, '燕南': 1.37, '科学馆': 1.88, '笋岗': 2.61, '红岭': 1.96, '红岭北': 1.88, '红岭南': 2.52, '翰岭': 2.78, '莲花北': 2.91, '莲花村': 2.15, '赤尾': 2.75, '通新岭': 1.19, '银湖': 1.41}</t>
+  </si>
+  <si>
+    <t>{'人民南': 2.21, '向西村': 1.29, '国贸': 1.93, '大剧院': 2.97, '怡景': 1.15, '文锦': 0.7, '新秀': 1.29, '晒布': 1.45, '洪湖': 2.64, '湖贝': 1.14, '田贝': 2.44, '罗湖': 2.39, '翠竹': 1.3, '老街': 2.0, '莲塘口岸': 2.14}</t>
   </si>
   <si>
     <t>{'侨城北': 2.68, '大学城': 2.21, '桃源村': 0.88, '深云': 2.12, '珠光': 1.53, '白石洲': 2.82, '茶光': 2.38, '西丽': 2.79}</t>
   </si>
   <si>
-    <t>{'上塘': 1.89, '清湖': 2.0, '龙胜': 1.31}</t>
+    <t>{'上塘': 1.89, '上芬': 1.38, '元芬': 1.85, '清湖': 2.0, '清湖北': 2.93, '龙胜': 1.31}</t>
   </si>
   <si>
     <t>{'南联': 1.25, '双龙': 2.69, '吉祥': 1.34, '爱联': 2.99}</t>
   </si>
   <si>
-    <t>{'上塘': 0.85, '红山': 2.8, '龙华': 1.31}</t>
+    <t>{'上塘': 0.85, '上芬': 0.68, '元芬': 1.47, '红山': 2.8, '龙华': 1.31}</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +2255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,16 +2283,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1883,16 +2300,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1900,16 +2317,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1917,16 +2334,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1937,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1951,16 +2368,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1968,16 +2385,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1988,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2002,16 +2419,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2019,16 +2436,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2036,16 +2453,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2056,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2070,16 +2487,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2087,16 +2504,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2104,16 +2521,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2121,16 +2538,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2141,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2158,13 +2575,13 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2172,16 +2589,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2192,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2206,16 +2623,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2223,16 +2640,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2240,16 +2657,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2257,16 +2674,16 @@
         <v>28</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
       <c r="E25" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2277,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2291,16 +2708,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2311,13 +2728,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2325,16 +2742,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2342,16 +2759,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2359,16 +2776,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2376,16 +2793,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2393,16 +2810,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2410,16 +2827,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2430,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2444,16 +2861,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2461,16 +2878,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2478,16 +2895,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2495,16 +2912,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2515,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2529,16 +2946,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2546,16 +2963,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2563,16 +2980,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2580,16 +2997,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2597,16 +3014,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2614,16 +3031,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2631,16 +3048,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2648,16 +3065,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2665,16 +3082,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2682,16 +3099,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2702,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2716,16 +3133,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2736,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2753,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2767,16 +3184,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2784,16 +3201,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2801,16 +3218,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2818,16 +3235,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2835,16 +3252,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2855,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2869,16 +3286,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>367</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2886,16 +3303,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2903,16 +3320,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2923,13 +3340,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2937,16 +3354,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>371</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2954,16 +3371,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2974,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2988,16 +3405,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3005,16 +3422,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>375</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3022,16 +3439,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>376</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3039,16 +3456,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>377</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3056,16 +3473,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3076,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3093,13 +3510,13 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>380</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3107,16 +3524,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>381</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3124,16 +3541,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3141,16 +3558,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3161,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3175,16 +3592,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3192,16 +3609,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3209,16 +3626,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3226,16 +3643,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3243,16 +3660,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3260,16 +3677,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>390</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3277,16 +3694,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3297,13 +3714,13 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3311,16 +3728,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3328,16 +3745,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>394</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3345,16 +3762,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3362,16 +3779,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3382,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3399,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3413,16 +3830,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>399</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3430,16 +3847,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>400</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3447,16 +3864,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3467,13 +3884,13 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3481,16 +3898,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="D97">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>403</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3501,13 +3918,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3515,16 +3932,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>405</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3532,16 +3949,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>406</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3549,16 +3966,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3569,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>408</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3583,16 +4000,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3603,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3617,16 +4034,16 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3637,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D106">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>412</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3651,16 +4068,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>413</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3671,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>414</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3685,16 +4102,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>415</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3702,16 +4119,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>416</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3719,16 +4136,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3739,13 +4156,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>418</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3753,16 +4170,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="D113">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3770,16 +4187,16 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3787,16 +4204,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>421</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3804,16 +4221,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>422</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3824,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3841,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3855,16 +4272,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3872,16 +4289,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3889,16 +4306,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3906,16 +4323,16 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D122">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3923,16 +4340,16 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D123">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3940,16 +4357,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3960,13 +4377,13 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D125">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3974,16 +4391,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3994,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4008,16 +4425,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="D128">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
-        <v>434</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4025,16 +4442,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>435</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4042,16 +4459,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4062,13 +4479,13 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4076,16 +4493,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>438</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4093,16 +4510,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>439</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4110,16 +4527,16 @@
         <v>137</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4127,16 +4544,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D135">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>441</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4144,16 +4561,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4164,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>443</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4178,16 +4595,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="D138">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4195,16 +4612,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="D139">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4212,16 +4629,16 @@
         <v>143</v>
       </c>
       <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>326</v>
+      </c>
+      <c r="D140">
         <v>3</v>
       </c>
-      <c r="C140" t="s">
-        <v>276</v>
-      </c>
-      <c r="D140">
-        <v>24</v>
-      </c>
       <c r="E140" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4232,13 +4649,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4246,16 +4663,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="D142">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4263,16 +4680,16 @@
         <v>146</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4280,16 +4697,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="D144">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4300,13 +4717,13 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4317,13 +4734,13 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4331,16 +4748,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4351,13 +4768,13 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4368,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>455</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4382,16 +4799,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4399,16 +4816,16 @@
         <v>154</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4419,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D152">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E152" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4433,16 +4850,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4453,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="D154">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4467,16 +4884,16 @@
         <v>158</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4484,16 +4901,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4501,16 +4918,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4518,16 +4935,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4538,13 +4955,13 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="D159">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4552,16 +4969,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D160">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4572,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4589,13 +5006,13 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="D162">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E162" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4603,16 +5020,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="D163">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4620,16 +5037,16 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4637,16 +5054,16 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>471</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4654,16 +5071,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4671,16 +5088,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4688,16 +5105,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="D168">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4708,13 +5125,13 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="D169">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4725,13 +5142,13 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4739,16 +5156,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="D171">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4756,16 +5173,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4773,16 +5190,16 @@
         <v>176</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="D173">
         <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4793,13 +5210,13 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4807,16 +5224,16 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="D175">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4824,16 +5241,16 @@
         <v>179</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4841,16 +5258,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="D177">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4858,16 +5275,16 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="D178">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4875,16 +5292,16 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4892,16 +5309,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>352</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4909,16 +5326,16 @@
         <v>184</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>353</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4929,13 +5346,948 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="D182">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>355</v>
+      </c>
+      <c r="D183">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>356</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>242</v>
+      </c>
+      <c r="D186">
+        <v>22</v>
+      </c>
+      <c r="E186" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>357</v>
+      </c>
+      <c r="D187">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>358</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>359</v>
+      </c>
+      <c r="D189">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>242</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>360</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>242</v>
+      </c>
+      <c r="D192">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>361</v>
+      </c>
+      <c r="D193">
+        <v>20</v>
+      </c>
+      <c r="E193" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>362</v>
+      </c>
+      <c r="D194">
+        <v>11</v>
+      </c>
+      <c r="E194" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>242</v>
+      </c>
+      <c r="D195">
         <v>3</v>
       </c>
-      <c r="E182" t="s">
-        <v>488</v>
+      <c r="E195" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>363</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>364</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>365</v>
+      </c>
+      <c r="D198">
+        <v>20</v>
+      </c>
+      <c r="E198" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>366</v>
+      </c>
+      <c r="D199">
+        <v>28</v>
+      </c>
+      <c r="E199" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>367</v>
+      </c>
+      <c r="D200">
+        <v>24</v>
+      </c>
+      <c r="E200" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>368</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>369</v>
+      </c>
+      <c r="D203">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>242</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>370</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>242</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>242</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>371</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>372</v>
+      </c>
+      <c r="D209">
+        <v>23</v>
+      </c>
+      <c r="E209" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>373</v>
+      </c>
+      <c r="D210">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>374</v>
+      </c>
+      <c r="D212">
+        <v>16</v>
+      </c>
+      <c r="E212" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>375</v>
+      </c>
+      <c r="D213">
+        <v>26</v>
+      </c>
+      <c r="E213" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>376</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>377</v>
+      </c>
+      <c r="D215">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>242</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>242</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>242</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>378</v>
+      </c>
+      <c r="D219">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>242</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>379</v>
+      </c>
+      <c r="D221">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>380</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>381</v>
+      </c>
+      <c r="D223">
+        <v>23</v>
+      </c>
+      <c r="E223" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>382</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>383</v>
+      </c>
+      <c r="D225">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>384</v>
+      </c>
+      <c r="D226">
+        <v>22</v>
+      </c>
+      <c r="E226" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>242</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>385</v>
+      </c>
+      <c r="D228">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>386</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>387</v>
+      </c>
+      <c r="D230">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>388</v>
+      </c>
+      <c r="D231">
+        <v>22</v>
+      </c>
+      <c r="E231" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>389</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>390</v>
+      </c>
+      <c r="D233">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>391</v>
+      </c>
+      <c r="D234">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>242</v>
+      </c>
+      <c r="D235">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236">
+        <v>4</v>
+      </c>
+      <c r="E236" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>392</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
